--- a/projects/validation - single vehicle motion/data/external/15-mph-steer-no-cg-height-data.xlsx
+++ b/projects/validation - single vehicle motion/data/external/15-mph-steer-no-cg-height-data.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\research\sae-2021\vehicle-dymanimcs-malibu\engineering\pc-crash\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/260f1994eb51c2be/pycrash/projects/validation - single vehicle motion/data/external/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC0EDC2-8246-4B75-8CAD-B82E13D06803}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{9BC0EDC2-8246-4B75-8CAD-B82E13D06803}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D8B5E8A3-6095-4E72-B451-688434C5BD70}"/>
   <bookViews>
-    <workbookView xWindow="-17340" yWindow="7935" windowWidth="27870" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -131,7 +131,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -204,16 +204,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -223,7 +215,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7899,67 +7899,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O33" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="AI60" sqref="AI60"/>
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="J65" sqref="J65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.73046875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="30" width="9.140625" style="9"/>
+    <col min="6" max="9" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.59765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.73046875" bestFit="1" customWidth="1"/>
+    <col min="27" max="30" width="9.1328125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:30" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="3"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="9"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="2" t="s">
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="2" t="s">
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="2" t="s">
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="6" t="s">
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="8"/>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="6"/>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -8038,20 +8038,20 @@
       <c r="Z2" t="s">
         <v>9</v>
       </c>
-      <c r="AA2" s="9" t="s">
+      <c r="AA2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="9" t="s">
+      <c r="AB2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AC2" s="9" t="s">
+      <c r="AC2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AD2" s="9" t="s">
+      <c r="AD2" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>0</v>
       </c>
@@ -8088,7 +8088,7 @@
       <c r="L3">
         <v>0</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="2">
         <v>0</v>
       </c>
       <c r="N3">
@@ -8130,24 +8130,24 @@
       <c r="Z3">
         <v>0.592337</v>
       </c>
-      <c r="AA3" s="9">
+      <c r="AA3" s="3">
         <f>-F3/W3*10</f>
         <v>0</v>
       </c>
-      <c r="AB3" s="9">
+      <c r="AB3" s="3">
         <f t="shared" ref="AB3:AD3" si="0">-G3/X3*10</f>
         <v>0</v>
       </c>
-      <c r="AC3" s="9">
+      <c r="AC3" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD3" s="9">
+      <c r="AD3" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>0.1</v>
       </c>
@@ -8184,7 +8184,7 @@
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="2">
         <v>0</v>
       </c>
       <c r="N4">
@@ -8226,24 +8226,24 @@
       <c r="Z4">
         <v>0.592337</v>
       </c>
-      <c r="AA4" s="9">
+      <c r="AA4" s="3">
         <f t="shared" ref="AA4:AA67" si="1">-F4/W4*10</f>
         <v>0</v>
       </c>
-      <c r="AB4" s="9">
+      <c r="AB4" s="3">
         <f t="shared" ref="AB4:AB67" si="2">-G4/X4*10</f>
         <v>0</v>
       </c>
-      <c r="AC4" s="9">
+      <c r="AC4" s="3">
         <f t="shared" ref="AC4:AC67" si="3">-H4/Y4*10</f>
         <v>0</v>
       </c>
-      <c r="AD4" s="9">
+      <c r="AD4" s="3">
         <f t="shared" ref="AD4:AD67" si="4">-I4/Z4*10</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>0.2</v>
       </c>
@@ -8280,7 +8280,7 @@
       <c r="L5">
         <v>0</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="2">
         <v>0</v>
       </c>
       <c r="N5">
@@ -8322,24 +8322,24 @@
       <c r="Z5">
         <v>0.592337</v>
       </c>
-      <c r="AA5" s="9">
+      <c r="AA5" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AB5" s="9">
+      <c r="AB5" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AC5" s="9">
+      <c r="AC5" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD5" s="9">
+      <c r="AD5" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>0.3</v>
       </c>
@@ -8376,7 +8376,7 @@
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="2">
         <v>0</v>
       </c>
       <c r="N6">
@@ -8418,24 +8418,24 @@
       <c r="Z6">
         <v>0.592337</v>
       </c>
-      <c r="AA6" s="9">
+      <c r="AA6" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AB6" s="9">
+      <c r="AB6" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AC6" s="9">
+      <c r="AC6" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD6" s="9">
+      <c r="AD6" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>0.4</v>
       </c>
@@ -8472,7 +8472,7 @@
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="2">
         <v>0</v>
       </c>
       <c r="N7">
@@ -8514,24 +8514,24 @@
       <c r="Z7">
         <v>0.592337</v>
       </c>
-      <c r="AA7" s="9">
+      <c r="AA7" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AB7" s="9">
+      <c r="AB7" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AC7" s="9">
+      <c r="AC7" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD7" s="9">
+      <c r="AD7" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>0.5</v>
       </c>
@@ -8568,7 +8568,7 @@
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="2">
         <v>0</v>
       </c>
       <c r="N8">
@@ -8610,24 +8610,24 @@
       <c r="Z8">
         <v>0.592337</v>
       </c>
-      <c r="AA8" s="9">
+      <c r="AA8" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AB8" s="9">
+      <c r="AB8" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AC8" s="9">
+      <c r="AC8" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD8" s="9">
+      <c r="AD8" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>0.6</v>
       </c>
@@ -8664,7 +8664,7 @@
       <c r="L9">
         <v>0</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="2">
         <v>0</v>
       </c>
       <c r="N9">
@@ -8706,24 +8706,24 @@
       <c r="Z9">
         <v>0.592337</v>
       </c>
-      <c r="AA9" s="9">
+      <c r="AA9" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AB9" s="9">
+      <c r="AB9" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AC9" s="9">
+      <c r="AC9" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD9" s="9">
+      <c r="AD9" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>0.7</v>
       </c>
@@ -8760,7 +8760,7 @@
       <c r="L10">
         <v>0</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="2">
         <v>0</v>
       </c>
       <c r="N10">
@@ -8802,24 +8802,24 @@
       <c r="Z10">
         <v>0.592337</v>
       </c>
-      <c r="AA10" s="9">
+      <c r="AA10" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AB10" s="9">
+      <c r="AB10" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AC10" s="9">
+      <c r="AC10" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD10" s="9">
+      <c r="AD10" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>0.8</v>
       </c>
@@ -8856,7 +8856,7 @@
       <c r="L11">
         <v>0</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="2">
         <v>0</v>
       </c>
       <c r="N11">
@@ -8898,24 +8898,24 @@
       <c r="Z11">
         <v>0.592337</v>
       </c>
-      <c r="AA11" s="9">
+      <c r="AA11" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AB11" s="9">
+      <c r="AB11" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AC11" s="9">
+      <c r="AC11" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD11" s="9">
+      <c r="AD11" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>0.9</v>
       </c>
@@ -8952,7 +8952,7 @@
       <c r="L12">
         <v>0</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="2">
         <v>0</v>
       </c>
       <c r="N12">
@@ -8994,24 +8994,24 @@
       <c r="Z12">
         <v>0.592337</v>
       </c>
-      <c r="AA12" s="9">
+      <c r="AA12" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AB12" s="9">
+      <c r="AB12" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AC12" s="9">
+      <c r="AC12" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD12" s="9">
+      <c r="AD12" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1</v>
       </c>
@@ -9048,7 +9048,7 @@
       <c r="L13">
         <v>0</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="2">
         <v>0</v>
       </c>
       <c r="N13">
@@ -9090,24 +9090,24 @@
       <c r="Z13">
         <v>0.592337</v>
       </c>
-      <c r="AA13" s="9">
+      <c r="AA13" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AB13" s="9">
+      <c r="AB13" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AC13" s="9">
+      <c r="AC13" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD13" s="9">
+      <c r="AD13" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1.1000000000000001</v>
       </c>
@@ -9144,7 +9144,7 @@
       <c r="L14">
         <v>-32.400050999999998</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="2">
         <v>-360</v>
       </c>
       <c r="N14">
@@ -9186,24 +9186,24 @@
       <c r="Z14">
         <v>0.592337</v>
       </c>
-      <c r="AA14" s="9">
+      <c r="AA14" s="3">
         <f t="shared" si="1"/>
         <v>1.4198292211126204</v>
       </c>
-      <c r="AB14" s="9">
+      <c r="AB14" s="3">
         <f t="shared" si="2"/>
         <v>1.9547589410723796</v>
       </c>
-      <c r="AC14" s="9">
+      <c r="AC14" s="3">
         <f t="shared" si="3"/>
         <v>1.1969537611190927E-2</v>
       </c>
-      <c r="AD14" s="9">
+      <c r="AD14" s="3">
         <f t="shared" si="4"/>
         <v>1.205394901888621E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>1.2</v>
       </c>
@@ -9240,7 +9240,7 @@
       <c r="L15">
         <v>-68.400059999999996</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="2">
         <v>-360</v>
       </c>
       <c r="N15">
@@ -9282,24 +9282,24 @@
       <c r="Z15">
         <v>0.592337</v>
       </c>
-      <c r="AA15" s="9">
+      <c r="AA15" s="3">
         <f t="shared" si="1"/>
         <v>2.2103778392889959</v>
       </c>
-      <c r="AB15" s="9">
+      <c r="AB15" s="3">
         <f t="shared" si="2"/>
         <v>3.2952045879537799</v>
       </c>
-      <c r="AC15" s="9">
+      <c r="AC15" s="3">
         <f t="shared" si="3"/>
         <v>0.38609777879821788</v>
       </c>
-      <c r="AD15" s="9">
+      <c r="AD15" s="3">
         <f t="shared" si="4"/>
         <v>0.39570379699394093</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1.3</v>
       </c>
@@ -9336,7 +9336,7 @@
       <c r="L16">
         <v>-104.400069</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" s="2">
         <v>-360</v>
       </c>
       <c r="N16">
@@ -9378,24 +9378,24 @@
       <c r="Z16">
         <v>0.592337</v>
       </c>
-      <c r="AA16" s="9">
+      <c r="AA16" s="3">
         <f t="shared" si="1"/>
         <v>2.7740391082515341</v>
       </c>
-      <c r="AB16" s="9">
+      <c r="AB16" s="3">
         <f t="shared" si="2"/>
         <v>4.3264995254036913</v>
       </c>
-      <c r="AC16" s="9">
+      <c r="AC16" s="3">
         <f t="shared" si="3"/>
         <v>0.86943749926140013</v>
       </c>
-      <c r="AD16" s="9">
+      <c r="AD16" s="3">
         <f t="shared" si="4"/>
         <v>0.91079908903208817</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>1.4</v>
       </c>
@@ -9432,7 +9432,7 @@
       <c r="L17">
         <v>-140.40007700000001</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17" s="2">
         <v>-360</v>
       </c>
       <c r="N17">
@@ -9474,24 +9474,24 @@
       <c r="Z17">
         <v>0.592337</v>
       </c>
-      <c r="AA17" s="9">
+      <c r="AA17" s="3">
         <f t="shared" si="1"/>
         <v>3.3160546174147476</v>
       </c>
-      <c r="AB17" s="9">
+      <c r="AB17" s="3">
         <f t="shared" si="2"/>
         <v>5.2412199682844633</v>
       </c>
-      <c r="AC17" s="9">
+      <c r="AC17" s="3">
         <f t="shared" si="3"/>
         <v>1.473384239039601</v>
       </c>
-      <c r="AD17" s="9">
+      <c r="AD17" s="3">
         <f t="shared" si="4"/>
         <v>1.5810087838510847</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>1.5</v>
       </c>
@@ -9528,7 +9528,7 @@
       <c r="L18">
         <v>-176.40008599999999</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="2">
         <v>-360</v>
       </c>
       <c r="N18">
@@ -9570,24 +9570,24 @@
       <c r="Z18">
         <v>0.592337</v>
       </c>
-      <c r="AA18" s="9">
+      <c r="AA18" s="3">
         <f t="shared" si="1"/>
         <v>3.8923528419887954</v>
       </c>
-      <c r="AB18" s="9">
+      <c r="AB18" s="3">
         <f t="shared" si="2"/>
         <v>6.0946407561711737</v>
       </c>
-      <c r="AC18" s="9">
+      <c r="AC18" s="3">
         <f t="shared" si="3"/>
         <v>2.1432056413831995</v>
       </c>
-      <c r="AD18" s="9">
+      <c r="AD18" s="3">
         <f t="shared" si="4"/>
         <v>2.3579144979969171</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>1.6</v>
       </c>
@@ -9624,7 +9624,7 @@
       <c r="L19">
         <v>-212.400094</v>
       </c>
-      <c r="M19" s="5">
+      <c r="M19" s="2">
         <v>-360</v>
       </c>
       <c r="N19">
@@ -9666,24 +9666,24 @@
       <c r="Z19">
         <v>0.592337</v>
       </c>
-      <c r="AA19" s="9">
+      <c r="AA19" s="3">
         <f t="shared" si="1"/>
         <v>4.5088449216300344</v>
       </c>
-      <c r="AB19" s="9">
+      <c r="AB19" s="3">
         <f t="shared" si="2"/>
         <v>6.8941318676738339</v>
       </c>
-      <c r="AC19" s="9">
+      <c r="AC19" s="3">
         <f t="shared" si="3"/>
         <v>2.8285080958981119</v>
       </c>
-      <c r="AD19" s="9">
+      <c r="AD19" s="3">
         <f t="shared" si="4"/>
         <v>3.1922368516570803</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>1.7</v>
       </c>
@@ -9720,7 +9720,7 @@
       <c r="L20">
         <v>-248.400103</v>
       </c>
-      <c r="M20" s="5">
+      <c r="M20" s="2">
         <v>-360</v>
       </c>
       <c r="N20">
@@ -9762,24 +9762,24 @@
       <c r="Z20">
         <v>0.592337</v>
       </c>
-      <c r="AA20" s="9">
+      <c r="AA20" s="3">
         <f t="shared" si="1"/>
         <v>5.1572419986472582</v>
       </c>
-      <c r="AB20" s="9">
+      <c r="AB20" s="3">
         <f t="shared" si="2"/>
         <v>7.5990826365956385</v>
       </c>
-      <c r="AC20" s="9">
+      <c r="AC20" s="3">
         <f t="shared" si="3"/>
         <v>3.4950881001862117</v>
       </c>
-      <c r="AD20" s="9">
+      <c r="AD20" s="3">
         <f t="shared" si="4"/>
         <v>4.0468854722902678</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>1.8</v>
       </c>
@@ -9816,7 +9816,7 @@
       <c r="L21">
         <v>-284.40011199999998</v>
       </c>
-      <c r="M21" s="5">
+      <c r="M21" s="2">
         <v>-360</v>
       </c>
       <c r="N21">
@@ -9858,24 +9858,24 @@
       <c r="Z21">
         <v>0.592337</v>
       </c>
-      <c r="AA21" s="9">
+      <c r="AA21" s="3">
         <f t="shared" si="1"/>
         <v>5.9384028934270781</v>
       </c>
-      <c r="AB21" s="9">
+      <c r="AB21" s="3">
         <f t="shared" si="2"/>
         <v>7.6000015156768352</v>
       </c>
-      <c r="AC21" s="9">
+      <c r="AC21" s="3">
         <f t="shared" si="3"/>
         <v>4.0853939564808552</v>
       </c>
-      <c r="AD21" s="9">
+      <c r="AD21" s="3">
         <f t="shared" si="4"/>
         <v>4.844792744670686</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>1.9</v>
       </c>
@@ -9912,7 +9912,7 @@
       <c r="L22">
         <v>-320.40012000000002</v>
       </c>
-      <c r="M22" s="5">
+      <c r="M22" s="2">
         <v>-360</v>
       </c>
       <c r="N22">
@@ -9954,24 +9954,24 @@
       <c r="Z22">
         <v>0.592337</v>
       </c>
-      <c r="AA22" s="9">
+      <c r="AA22" s="3">
         <f t="shared" si="1"/>
         <v>6.8526591602771418</v>
       </c>
-      <c r="AB22" s="9">
+      <c r="AB22" s="3">
         <f t="shared" si="2"/>
         <v>7.6000015156768352</v>
       </c>
-      <c r="AC22" s="9">
+      <c r="AC22" s="3">
         <f t="shared" si="3"/>
         <v>4.5476983541463722</v>
       </c>
-      <c r="AD22" s="9">
+      <c r="AD22" s="3">
         <f t="shared" si="4"/>
         <v>5.5102922829402861</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>2</v>
       </c>
@@ -10008,7 +10008,7 @@
       <c r="L23">
         <v>-356.40008599999999</v>
       </c>
-      <c r="M23" s="5">
+      <c r="M23" s="2">
         <v>-360</v>
       </c>
       <c r="N23">
@@ -10050,24 +10050,24 @@
       <c r="Z23">
         <v>0.592337</v>
       </c>
-      <c r="AA23" s="9">
+      <c r="AA23" s="3">
         <f t="shared" si="1"/>
         <v>7.6000015156768352</v>
       </c>
-      <c r="AB23" s="9">
+      <c r="AB23" s="3">
         <f t="shared" si="2"/>
         <v>7.6000015156768352</v>
       </c>
-      <c r="AC23" s="9">
+      <c r="AC23" s="3">
         <f t="shared" si="3"/>
         <v>4.8880282676922091</v>
       </c>
-      <c r="AD23" s="9">
+      <c r="AD23" s="3">
         <f t="shared" si="4"/>
         <v>6.0430802060313642</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>2.1</v>
       </c>
@@ -10104,7 +10104,7 @@
       <c r="L24">
         <v>-360</v>
       </c>
-      <c r="M24" s="5">
+      <c r="M24" s="2">
         <v>0</v>
       </c>
       <c r="N24">
@@ -10146,24 +10146,24 @@
       <c r="Z24">
         <v>0.592337</v>
       </c>
-      <c r="AA24" s="9">
+      <c r="AA24" s="3">
         <f t="shared" si="1"/>
         <v>6.9529496018506425</v>
       </c>
-      <c r="AB24" s="9">
+      <c r="AB24" s="3">
         <f t="shared" si="2"/>
         <v>7.6000015156768352</v>
       </c>
-      <c r="AC24" s="9">
+      <c r="AC24" s="3">
         <f t="shared" si="3"/>
         <v>5.1509022735368548</v>
       </c>
-      <c r="AD24" s="9">
+      <c r="AD24" s="3">
         <f t="shared" si="4"/>
         <v>6.4773600163420486</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>2.2000000000000002</v>
       </c>
@@ -10200,7 +10200,7 @@
       <c r="L25">
         <v>-360</v>
       </c>
-      <c r="M25" s="5">
+      <c r="M25" s="2">
         <v>0</v>
       </c>
       <c r="N25">
@@ -10242,24 +10242,24 @@
       <c r="Z25">
         <v>0.592337</v>
       </c>
-      <c r="AA25" s="9">
+      <c r="AA25" s="3">
         <f t="shared" si="1"/>
         <v>6.2465399939751851</v>
       </c>
-      <c r="AB25" s="9">
+      <c r="AB25" s="3">
         <f t="shared" si="2"/>
         <v>7.6000015156768352</v>
       </c>
-      <c r="AC25" s="9">
+      <c r="AC25" s="3">
         <f t="shared" si="3"/>
         <v>5.3489314359899858</v>
       </c>
-      <c r="AD25" s="9">
+      <c r="AD25" s="3">
         <f t="shared" si="4"/>
         <v>6.8051295124228259</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>2.2999999999999998</v>
       </c>
@@ -10296,7 +10296,7 @@
       <c r="L26">
         <v>-360</v>
       </c>
-      <c r="M26" s="5">
+      <c r="M26" s="2">
         <v>0</v>
       </c>
       <c r="N26">
@@ -10338,24 +10338,24 @@
       <c r="Z26">
         <v>0.592337</v>
       </c>
-      <c r="AA26" s="9">
+      <c r="AA26" s="3">
         <f t="shared" si="1"/>
         <v>5.795597716632849</v>
       </c>
-      <c r="AB26" s="9">
+      <c r="AB26" s="3">
         <f t="shared" si="2"/>
         <v>7.2798242572709873</v>
       </c>
-      <c r="AC26" s="9">
+      <c r="AC26" s="3">
         <f t="shared" si="3"/>
         <v>5.4538210511921426</v>
       </c>
-      <c r="AD26" s="9">
+      <c r="AD26" s="3">
         <f t="shared" si="4"/>
         <v>6.9891801457616189</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>2.4</v>
       </c>
@@ -10392,7 +10392,7 @@
       <c r="L27">
         <v>-360</v>
       </c>
-      <c r="M27" s="5">
+      <c r="M27" s="2">
         <v>0</v>
       </c>
       <c r="N27">
@@ -10434,24 +10434,24 @@
       <c r="Z27">
         <v>0.592337</v>
       </c>
-      <c r="AA27" s="9">
+      <c r="AA27" s="3">
         <f t="shared" si="1"/>
         <v>5.5761087649696774</v>
       </c>
-      <c r="AB27" s="9">
+      <c r="AB27" s="3">
         <f t="shared" si="2"/>
         <v>6.9541242513977384</v>
       </c>
-      <c r="AC27" s="9">
+      <c r="AC27" s="3">
         <f t="shared" si="3"/>
         <v>5.4472707259549882</v>
       </c>
-      <c r="AD27" s="9">
+      <c r="AD27" s="3">
         <f t="shared" si="4"/>
         <v>7.0010821542466539</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>2.5</v>
       </c>
@@ -10488,7 +10488,7 @@
       <c r="L28">
         <v>-360</v>
       </c>
-      <c r="M28" s="5">
+      <c r="M28" s="2">
         <v>0</v>
       </c>
       <c r="N28">
@@ -10530,24 +10530,24 @@
       <c r="Z28">
         <v>0.592337</v>
       </c>
-      <c r="AA28" s="9">
+      <c r="AA28" s="3">
         <f t="shared" si="1"/>
         <v>5.4375190643726903</v>
       </c>
-      <c r="AB28" s="9">
+      <c r="AB28" s="3">
         <f t="shared" si="2"/>
         <v>6.7640299573526432</v>
       </c>
-      <c r="AC28" s="9">
+      <c r="AC28" s="3">
         <f t="shared" si="3"/>
         <v>5.379370189604904</v>
       </c>
-      <c r="AD28" s="9">
+      <c r="AD28" s="3">
         <f t="shared" si="4"/>
         <v>6.9214990790715429</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>2.6</v>
       </c>
@@ -10584,7 +10584,7 @@
       <c r="L29">
         <v>-360</v>
       </c>
-      <c r="M29" s="5">
+      <c r="M29" s="2">
         <v>0</v>
       </c>
       <c r="N29">
@@ -10626,24 +10626,24 @@
       <c r="Z29">
         <v>0.592337</v>
       </c>
-      <c r="AA29" s="9">
+      <c r="AA29" s="3">
         <f t="shared" si="1"/>
         <v>5.3219581786869306</v>
       </c>
-      <c r="AB29" s="9">
+      <c r="AB29" s="3">
         <f t="shared" si="2"/>
         <v>6.614887356792222</v>
       </c>
-      <c r="AC29" s="9">
+      <c r="AC29" s="3">
         <f t="shared" si="3"/>
         <v>5.2853696459954396</v>
       </c>
-      <c r="AD29" s="9">
+      <c r="AD29" s="3">
         <f t="shared" si="4"/>
         <v>6.8039477527150938</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>2.7</v>
       </c>
@@ -10680,7 +10680,7 @@
       <c r="L30">
         <v>-360</v>
       </c>
-      <c r="M30" s="5">
+      <c r="M30" s="2">
         <v>0</v>
       </c>
       <c r="N30">
@@ -10722,24 +10722,24 @@
       <c r="Z30">
         <v>0.592337</v>
       </c>
-      <c r="AA30" s="9">
+      <c r="AA30" s="3">
         <f t="shared" si="1"/>
         <v>5.2145251100286663</v>
       </c>
-      <c r="AB30" s="9">
+      <c r="AB30" s="3">
         <f t="shared" si="2"/>
         <v>6.480181578084828</v>
       </c>
-      <c r="AC30" s="9">
+      <c r="AC30" s="3">
         <f t="shared" si="3"/>
         <v>5.182522786859507</v>
       </c>
-      <c r="AD30" s="9">
+      <c r="AD30" s="3">
         <f t="shared" si="4"/>
         <v>6.6734983632628042</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>2.8</v>
       </c>
@@ -10776,7 +10776,7 @@
       <c r="L31">
         <v>-360</v>
       </c>
-      <c r="M31" s="5">
+      <c r="M31" s="2">
         <v>0</v>
       </c>
       <c r="N31">
@@ -10818,24 +10818,24 @@
       <c r="Z31">
         <v>0.592337</v>
       </c>
-      <c r="AA31" s="9">
+      <c r="AA31" s="3">
         <f t="shared" si="1"/>
         <v>5.1120179910840315</v>
       </c>
-      <c r="AB31" s="9">
+      <c r="AB31" s="3">
         <f t="shared" si="2"/>
         <v>6.3530447105720356</v>
       </c>
-      <c r="AC31" s="9">
+      <c r="AC31" s="3">
         <f t="shared" si="3"/>
         <v>5.0789668718989356</v>
       </c>
-      <c r="AD31" s="9">
+      <c r="AD31" s="3">
         <f t="shared" si="4"/>
         <v>6.5415295684720025</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>2.9</v>
       </c>
@@ -10872,7 +10872,7 @@
       <c r="L32">
         <v>-360</v>
       </c>
-      <c r="M32" s="5">
+      <c r="M32" s="2">
         <v>0</v>
       </c>
       <c r="N32">
@@ -10914,24 +10914,24 @@
       <c r="Z32">
         <v>0.592337</v>
       </c>
-      <c r="AA32" s="9">
+      <c r="AA32" s="3">
         <f t="shared" si="1"/>
         <v>5.0139442268816659</v>
       </c>
-      <c r="AB32" s="9">
+      <c r="AB32" s="3">
         <f t="shared" si="2"/>
         <v>6.2318663476166938</v>
       </c>
-      <c r="AC32" s="9">
+      <c r="AC32" s="3">
         <f t="shared" si="3"/>
         <v>4.9781458865476917</v>
       </c>
-      <c r="AD32" s="9">
+      <c r="AD32" s="3">
         <f t="shared" si="4"/>
         <v>6.4128697008628528</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>3</v>
       </c>
@@ -10968,7 +10968,7 @@
       <c r="L33">
         <v>-360</v>
       </c>
-      <c r="M33" s="5">
+      <c r="M33" s="2">
         <v>0</v>
       </c>
       <c r="N33">
@@ -11010,24 +11010,24 @@
       <c r="Z33">
         <v>0.592337</v>
       </c>
-      <c r="AA33" s="9">
+      <c r="AA33" s="3">
         <f t="shared" si="1"/>
         <v>4.9202753984809133</v>
       </c>
-      <c r="AB33" s="9">
+      <c r="AB33" s="3">
         <f t="shared" si="2"/>
         <v>6.1162580970298421</v>
       </c>
-      <c r="AC33" s="9">
+      <c r="AC33" s="3">
         <f t="shared" si="3"/>
         <v>4.8813935310473591</v>
       </c>
-      <c r="AD33" s="9">
+      <c r="AD33" s="3">
         <f t="shared" si="4"/>
         <v>6.2892913999969613</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>3.1</v>
       </c>
@@ -11064,7 +11064,7 @@
       <c r="L34">
         <v>-360</v>
       </c>
-      <c r="M34" s="5">
+      <c r="M34" s="2">
         <v>0</v>
       </c>
       <c r="N34">
@@ -11106,24 +11106,24 @@
       <c r="Z34">
         <v>0.592337</v>
       </c>
-      <c r="AA34" s="9">
+      <c r="AA34" s="3">
         <f t="shared" si="1"/>
         <v>4.8309357220400253</v>
       </c>
-      <c r="AB34" s="9">
+      <c r="AB34" s="3">
         <f t="shared" si="2"/>
         <v>6.0060304992071121</v>
       </c>
-      <c r="AC34" s="9">
+      <c r="AC34" s="3">
         <f t="shared" si="3"/>
         <v>4.7890643333102609</v>
       </c>
-      <c r="AD34" s="9">
+      <c r="AD34" s="3">
         <f t="shared" si="4"/>
         <v>6.1713348988835746</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>3.2</v>
       </c>
@@ -11160,7 +11160,7 @@
       <c r="L35">
         <v>-360</v>
       </c>
-      <c r="M35" s="5">
+      <c r="M35" s="2">
         <v>0</v>
       </c>
       <c r="N35">
@@ -11202,24 +11202,24 @@
       <c r="Z35">
         <v>0.592337</v>
       </c>
-      <c r="AA35" s="9">
+      <c r="AA35" s="3">
         <f t="shared" si="1"/>
         <v>4.7457167919941954</v>
       </c>
-      <c r="AB35" s="9">
+      <c r="AB35" s="3">
         <f t="shared" si="2"/>
         <v>5.9008709458012909</v>
       </c>
-      <c r="AC35" s="9">
+      <c r="AC35" s="3">
         <f t="shared" si="3"/>
         <v>4.7010569996471609</v>
       </c>
-      <c r="AD35" s="9">
+      <c r="AD35" s="3">
         <f t="shared" si="4"/>
         <v>6.0588651392703818</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>3.3</v>
       </c>
@@ -11256,7 +11256,7 @@
       <c r="L36">
         <v>-360</v>
       </c>
-      <c r="M36" s="5">
+      <c r="M36" s="2">
         <v>0</v>
       </c>
       <c r="N36">
@@ -11298,24 +11298,24 @@
       <c r="Z36">
         <v>0.592337</v>
       </c>
-      <c r="AA36" s="9">
+      <c r="AA36" s="3">
         <f t="shared" si="1"/>
         <v>4.6643533648973037</v>
       </c>
-      <c r="AB36" s="9">
+      <c r="AB36" s="3">
         <f t="shared" si="2"/>
         <v>5.8004478825047325</v>
       </c>
-      <c r="AC36" s="9">
+      <c r="AC36" s="3">
         <f t="shared" si="3"/>
         <v>4.61715206039805</v>
       </c>
-      <c r="AD36" s="9">
+      <c r="AD36" s="3">
         <f t="shared" si="4"/>
         <v>5.9516120046527563</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>3.4</v>
       </c>
@@ -11352,7 +11352,7 @@
       <c r="L37">
         <v>-360</v>
       </c>
-      <c r="M37" s="5">
+      <c r="M37" s="2">
         <v>0</v>
       </c>
       <c r="N37">
@@ -11394,24 +11394,24 @@
       <c r="Z37">
         <v>0.592337</v>
       </c>
-      <c r="AA37" s="9">
+      <c r="AA37" s="3">
         <f t="shared" si="1"/>
         <v>4.5866180892241069</v>
       </c>
-      <c r="AB37" s="9">
+      <c r="AB37" s="3">
         <f t="shared" si="2"/>
         <v>5.7044865928910973</v>
       </c>
-      <c r="AC37" s="9">
+      <c r="AC37" s="3">
         <f t="shared" si="3"/>
         <v>4.5371131636213837</v>
       </c>
-      <c r="AD37" s="9">
+      <c r="AD37" s="3">
         <f t="shared" si="4"/>
         <v>5.8492716139629977</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>3.5</v>
       </c>
@@ -11448,7 +11448,7 @@
       <c r="L38">
         <v>-360</v>
       </c>
-      <c r="M38" s="5">
+      <c r="M38" s="2">
         <v>0</v>
       </c>
       <c r="N38">
@@ -11490,24 +11490,24 @@
       <c r="Z38">
         <v>0.592337</v>
       </c>
-      <c r="AA38" s="9">
+      <c r="AA38" s="3">
         <f t="shared" si="1"/>
         <v>4.5122457215284841</v>
       </c>
-      <c r="AB38" s="9">
+      <c r="AB38" s="3">
         <f t="shared" si="2"/>
         <v>5.6126460496725192</v>
       </c>
-      <c r="AC38" s="9">
+      <c r="AC38" s="3">
         <f t="shared" si="3"/>
         <v>4.4606195459679201</v>
       </c>
-      <c r="AD38" s="9">
+      <c r="AD38" s="3">
         <f t="shared" si="4"/>
         <v>5.7514556747257046</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>3.6</v>
       </c>
@@ -11544,7 +11544,7 @@
       <c r="L39">
         <v>-360</v>
       </c>
-      <c r="M39" s="5">
+      <c r="M39" s="2">
         <v>0</v>
       </c>
       <c r="N39">
@@ -11586,24 +11586,24 @@
       <c r="Z39">
         <v>0.592337</v>
       </c>
-      <c r="AA39" s="9">
+      <c r="AA39" s="3">
         <f t="shared" si="1"/>
         <v>4.440989964324757</v>
       </c>
-      <c r="AB39" s="9">
+      <c r="AB39" s="3">
         <f t="shared" si="2"/>
         <v>5.5246515364226614</v>
       </c>
-      <c r="AC39" s="9">
+      <c r="AC39" s="3">
         <f t="shared" si="3"/>
         <v>4.3874517377776501</v>
       </c>
-      <c r="AD39" s="9">
+      <c r="AD39" s="3">
         <f t="shared" si="4"/>
         <v>5.6578771881547159</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>3.7</v>
       </c>
@@ -11640,7 +11640,7 @@
       <c r="L40">
         <v>-360</v>
       </c>
-      <c r="M40" s="5">
+      <c r="M40" s="2">
         <v>0</v>
       </c>
       <c r="N40">
@@ -11682,24 +11682,24 @@
       <c r="Z40">
         <v>0.592337</v>
       </c>
-      <c r="AA40" s="9">
+      <c r="AA40" s="3">
         <f t="shared" si="1"/>
         <v>4.3726613580085525</v>
       </c>
-      <c r="AB40" s="9">
+      <c r="AB40" s="3">
         <f t="shared" si="2"/>
         <v>5.4402472826756245</v>
       </c>
-      <c r="AC40" s="9">
+      <c r="AC40" s="3">
         <f t="shared" si="3"/>
         <v>4.3173902693905664</v>
       </c>
-      <c r="AD40" s="9">
+      <c r="AD40" s="3">
         <f t="shared" si="4"/>
         <v>5.5682491554638656</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>3.8</v>
       </c>
@@ -11736,7 +11736,7 @@
       <c r="L41">
         <v>-360</v>
       </c>
-      <c r="M41" s="5">
+      <c r="M41" s="2">
         <v>0</v>
       </c>
       <c r="N41">
@@ -11778,24 +11778,24 @@
       <c r="Z41">
         <v>0.592337</v>
       </c>
-      <c r="AA41" s="9">
+      <c r="AA41" s="3">
         <f t="shared" si="1"/>
         <v>4.3070609699952831</v>
       </c>
-      <c r="AB41" s="9">
+      <c r="AB41" s="3">
         <f t="shared" si="2"/>
         <v>5.3591869909457257</v>
       </c>
-      <c r="AC41" s="9">
+      <c r="AC41" s="3">
         <f t="shared" si="3"/>
         <v>4.2501987888651227</v>
       </c>
-      <c r="AD41" s="9">
+      <c r="AD41" s="3">
         <f t="shared" si="4"/>
         <v>5.4822676955854526</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>3.9</v>
       </c>
@@ -11832,7 +11832,7 @@
       <c r="L42">
         <v>-360</v>
       </c>
-      <c r="M42" s="5">
+      <c r="M42" s="2">
         <v>0</v>
       </c>
       <c r="N42">
@@ -11874,24 +11874,24 @@
       <c r="Z42">
         <v>0.592337</v>
       </c>
-      <c r="AA42" s="9">
+      <c r="AA42" s="3">
         <f t="shared" si="1"/>
         <v>4.2439898677003587</v>
       </c>
-      <c r="AB42" s="9">
+      <c r="AB42" s="3">
         <f t="shared" si="2"/>
         <v>5.2812433097077207</v>
       </c>
-      <c r="AC42" s="9">
+      <c r="AC42" s="3">
         <f t="shared" si="3"/>
         <v>4.185674708822849</v>
       </c>
-      <c r="AD42" s="9">
+      <c r="AD42" s="3">
         <f t="shared" si="4"/>
         <v>5.399696456577928</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>4</v>
       </c>
@@ -11928,7 +11928,7 @@
       <c r="L43">
         <v>-360</v>
       </c>
-      <c r="M43" s="5">
+      <c r="M43" s="2">
         <v>0</v>
       </c>
       <c r="N43">
@@ -11970,24 +11970,24 @@
       <c r="Z43">
         <v>0.592337</v>
       </c>
-      <c r="AA43" s="9">
+      <c r="AA43" s="3">
         <f t="shared" si="1"/>
         <v>4.1833154294007207</v>
       </c>
-      <c r="AB43" s="9">
+      <c r="AB43" s="3">
         <f t="shared" si="2"/>
         <v>5.2062457253176762</v>
       </c>
-      <c r="AC43" s="9">
+      <c r="AC43" s="3">
         <f t="shared" si="3"/>
         <v>4.1236829710114344</v>
       </c>
-      <c r="AD43" s="9">
+      <c r="AD43" s="3">
         <f t="shared" si="4"/>
         <v>5.3203497333443632</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>4.0999999999999996</v>
       </c>
@@ -12024,7 +12024,7 @@
       <c r="L44">
         <v>-360</v>
       </c>
-      <c r="M44" s="5">
+      <c r="M44" s="2">
         <v>0</v>
       </c>
       <c r="N44">
@@ -12066,24 +12066,24 @@
       <c r="Z44">
         <v>0.592337</v>
       </c>
-      <c r="AA44" s="9">
+      <c r="AA44" s="3">
         <f t="shared" si="1"/>
         <v>4.1248766144326536</v>
       </c>
-      <c r="AB44" s="9">
+      <c r="AB44" s="3">
         <f t="shared" si="2"/>
         <v>5.1340047781712217</v>
       </c>
-      <c r="AC44" s="9">
+      <c r="AC44" s="3">
         <f t="shared" si="3"/>
         <v>4.064020988052409</v>
       </c>
-      <c r="AD44" s="9">
+      <c r="AD44" s="3">
         <f t="shared" si="4"/>
         <v>5.2439742916616723</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>4.2</v>
       </c>
@@ -12120,7 +12120,7 @@
       <c r="L45">
         <v>-360</v>
       </c>
-      <c r="M45" s="5">
+      <c r="M45" s="2">
         <v>0</v>
       </c>
       <c r="N45">
@@ -12162,24 +12162,24 @@
       <c r="Z45">
         <v>0.592337</v>
       </c>
-      <c r="AA45" s="9">
+      <c r="AA45" s="3">
         <f t="shared" si="1"/>
         <v>4.068531328092881</v>
       </c>
-      <c r="AB45" s="9">
+      <c r="AB45" s="3">
         <f t="shared" si="2"/>
         <v>5.0643310086639879</v>
       </c>
-      <c r="AC45" s="9">
+      <c r="AC45" s="3">
         <f t="shared" si="3"/>
         <v>4.0065705839750008</v>
       </c>
-      <c r="AD45" s="9">
+      <c r="AD45" s="3">
         <f t="shared" si="4"/>
         <v>5.1704181909960045</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>4.3</v>
       </c>
@@ -12216,7 +12216,7 @@
       <c r="L46">
         <v>-360</v>
       </c>
-      <c r="M46" s="5">
+      <c r="M46" s="2">
         <v>0</v>
       </c>
       <c r="N46">
@@ -12258,24 +12258,24 @@
       <c r="Z46">
         <v>0.592337</v>
       </c>
-      <c r="AA46" s="9">
+      <c r="AA46" s="3">
         <f t="shared" si="1"/>
         <v>4.0141848405792153</v>
       </c>
-      <c r="AB46" s="9">
+      <c r="AB46" s="3">
         <f t="shared" si="2"/>
         <v>4.9971107410333504</v>
       </c>
-      <c r="AC46" s="9">
+      <c r="AC46" s="3">
         <f t="shared" si="3"/>
         <v>3.9512135828084349</v>
       </c>
-      <c r="AD46" s="9">
+      <c r="AD46" s="3">
         <f t="shared" si="4"/>
         <v>5.0995294908135067</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>4.4000000000000004</v>
       </c>
@@ -12312,7 +12312,7 @@
       <c r="L47">
         <v>-360</v>
       </c>
-      <c r="M47" s="5">
+      <c r="M47" s="2">
         <v>0</v>
       </c>
       <c r="N47">
@@ -12354,24 +12354,24 @@
       <c r="Z47">
         <v>0.592337</v>
       </c>
-      <c r="AA47" s="9">
+      <c r="AA47" s="3">
         <f t="shared" si="1"/>
         <v>3.9616950571883818</v>
       </c>
-      <c r="AB47" s="9">
+      <c r="AB47" s="3">
         <f t="shared" si="2"/>
         <v>4.9321829346155956</v>
       </c>
-      <c r="AC47" s="9">
+      <c r="AC47" s="3">
         <f t="shared" si="3"/>
         <v>3.8977980440188609</v>
       </c>
-      <c r="AD47" s="9">
+      <c r="AD47" s="3">
         <f t="shared" si="4"/>
         <v>5.0311056037357114</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>4.5</v>
       </c>
@@ -12408,7 +12408,7 @@
       <c r="L48">
         <v>-360</v>
       </c>
-      <c r="M48" s="5">
+      <c r="M48" s="2">
         <v>0</v>
       </c>
       <c r="N48">
@@ -12450,24 +12450,24 @@
       <c r="Z48">
         <v>0.592337</v>
       </c>
-      <c r="AA48" s="9">
+      <c r="AA48" s="3">
         <f t="shared" si="1"/>
         <v>3.910957775137974</v>
       </c>
-      <c r="AB48" s="9">
+      <c r="AB48" s="3">
         <f t="shared" si="2"/>
         <v>4.869424440667883</v>
       </c>
-      <c r="AC48" s="9">
+      <c r="AC48" s="3">
         <f t="shared" si="3"/>
         <v>3.846222673917044</v>
       </c>
-      <c r="AD48" s="9">
+      <c r="AD48" s="3">
         <f t="shared" si="4"/>
         <v>4.9650452360733848</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>4.5999999999999996</v>
       </c>
@@ -12504,7 +12504,7 @@
       <c r="L49">
         <v>-360</v>
       </c>
-      <c r="M49" s="5">
+      <c r="M49" s="2">
         <v>0</v>
       </c>
       <c r="N49">
@@ -12546,24 +12546,24 @@
       <c r="Z49">
         <v>0.592337</v>
       </c>
-      <c r="AA49" s="9">
+      <c r="AA49" s="3">
         <f t="shared" si="1"/>
         <v>3.8618972105862452</v>
       </c>
-      <c r="AB49" s="9">
+      <c r="AB49" s="3">
         <f t="shared" si="2"/>
         <v>4.80872158342759</v>
       </c>
-      <c r="AC49" s="9">
+      <c r="AC49" s="3">
         <f t="shared" si="3"/>
         <v>3.7963861788137492</v>
       </c>
-      <c r="AD49" s="9">
+      <c r="AD49" s="3">
         <f t="shared" si="4"/>
         <v>4.9011964472926737</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>4.7</v>
       </c>
@@ -12600,7 +12600,7 @@
       <c r="L50">
         <v>-360</v>
       </c>
-      <c r="M50" s="5">
+      <c r="M50" s="2">
         <v>0</v>
       </c>
       <c r="N50">
@@ -12642,24 +12642,24 @@
       <c r="Z50">
         <v>0.592337</v>
       </c>
-      <c r="AA50" s="9">
+      <c r="AA50" s="3">
         <f t="shared" si="1"/>
         <v>3.8144186337310093</v>
       </c>
-      <c r="AB50" s="9">
+      <c r="AB50" s="3">
         <f t="shared" si="2"/>
         <v>4.7499606871320941</v>
       </c>
-      <c r="AC50" s="9">
+      <c r="AC50" s="3">
         <f t="shared" si="3"/>
         <v>3.7482041473012826</v>
       </c>
-      <c r="AD50" s="9">
+      <c r="AD50" s="3">
         <f t="shared" si="4"/>
         <v>4.8394410614228054</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>4.8</v>
       </c>
@@ -12696,7 +12696,7 @@
       <c r="L51">
         <v>-360</v>
       </c>
-      <c r="M51" s="5">
+      <c r="M51" s="2">
         <v>0</v>
       </c>
       <c r="N51">
@@ -12738,24 +12738,24 @@
       <c r="Z51">
         <v>0.592337</v>
       </c>
-      <c r="AA51" s="9">
+      <c r="AA51" s="3">
         <f t="shared" si="1"/>
         <v>3.7684273147700815</v>
       </c>
-      <c r="AB51" s="9">
+      <c r="AB51" s="3">
         <f t="shared" si="2"/>
         <v>4.6930375489989897</v>
       </c>
-      <c r="AC51" s="9">
+      <c r="AC51" s="3">
         <f t="shared" si="3"/>
         <v>3.7015584034088707</v>
       </c>
-      <c r="AD51" s="9">
+      <c r="AD51" s="3">
         <f t="shared" si="4"/>
         <v>4.7796777847745453</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>4.9000000000000004</v>
       </c>
@@ -12792,7 +12792,7 @@
       <c r="L52">
         <v>-360</v>
       </c>
-      <c r="M52" s="5">
+      <c r="M52" s="2">
         <v>0</v>
       </c>
       <c r="N52">
@@ -12834,24 +12834,24 @@
       <c r="Z52">
         <v>0.592337</v>
       </c>
-      <c r="AA52" s="9">
+      <c r="AA52" s="3">
         <f t="shared" si="1"/>
         <v>3.7238569428419321</v>
       </c>
-      <c r="AB52" s="9">
+      <c r="AB52" s="3">
         <f t="shared" si="2"/>
         <v>4.6378763851865328</v>
       </c>
-      <c r="AC52" s="9">
+      <c r="AC52" s="3">
         <f t="shared" si="3"/>
         <v>3.6563983002918947</v>
       </c>
-      <c r="AD52" s="9">
+      <c r="AD52" s="3">
         <f t="shared" si="4"/>
         <v>4.7217884413771216</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>5</v>
       </c>
@@ -12888,7 +12888,7 @@
       <c r="L53">
         <v>-360</v>
       </c>
-      <c r="M53" s="5">
+      <c r="M53" s="2">
         <v>0</v>
       </c>
       <c r="N53">
@@ -12930,24 +12930,24 @@
       <c r="Z53">
         <v>0.592337</v>
       </c>
-      <c r="AA53" s="9">
+      <c r="AA53" s="3">
         <f t="shared" si="1"/>
         <v>3.6806317341048129</v>
       </c>
-      <c r="AB53" s="9">
+      <c r="AB53" s="3">
         <f t="shared" si="2"/>
         <v>4.584363519932098</v>
       </c>
-      <c r="AC53" s="9">
+      <c r="AC53" s="3">
         <f t="shared" si="3"/>
         <v>3.6126394265426609</v>
       </c>
-      <c r="AD53" s="9">
+      <c r="AD53" s="3">
         <f t="shared" si="4"/>
         <v>4.6656886198228378</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>5.0999999999999996</v>
       </c>
@@ -12984,7 +12984,7 @@
       <c r="L54">
         <v>-360</v>
       </c>
-      <c r="M54" s="5">
+      <c r="M54" s="2">
         <v>0</v>
       </c>
       <c r="N54">
@@ -13026,24 +13026,24 @@
       <c r="Z54">
         <v>0.592337</v>
       </c>
-      <c r="AA54" s="9">
+      <c r="AA54" s="3">
         <f t="shared" si="1"/>
         <v>3.6386948506774131</v>
       </c>
-      <c r="AB54" s="9">
+      <c r="AB54" s="3">
         <f t="shared" si="2"/>
         <v>4.5324326423741566</v>
       </c>
-      <c r="AC54" s="9">
+      <c r="AC54" s="3">
         <f t="shared" si="3"/>
         <v>3.5702142530350125</v>
       </c>
-      <c r="AD54" s="9">
+      <c r="AD54" s="3">
         <f t="shared" si="4"/>
         <v>4.6112939087039981</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>5.2</v>
       </c>
@@ -13080,7 +13080,7 @@
       <c r="L55">
         <v>-360</v>
       </c>
-      <c r="M55" s="5">
+      <c r="M55" s="2">
         <v>0</v>
       </c>
       <c r="N55">
@@ -13122,24 +13122,24 @@
       <c r="Z55">
         <v>0.592337</v>
       </c>
-      <c r="AA55" s="9">
+      <c r="AA55" s="3">
         <f t="shared" si="1"/>
         <v>3.5979799816982023</v>
       </c>
-      <c r="AB55" s="9">
+      <c r="AB55" s="3">
         <f t="shared" si="2"/>
         <v>4.4820079686709597</v>
       </c>
-      <c r="AC55" s="9">
+      <c r="AC55" s="3">
         <f t="shared" si="3"/>
         <v>3.5290383683612534</v>
       </c>
-      <c r="AD55" s="9">
+      <c r="AD55" s="3">
         <f t="shared" si="4"/>
         <v>4.558503014331369</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>5.3</v>
       </c>
@@ -13176,7 +13176,7 @@
       <c r="L56">
         <v>-360</v>
       </c>
-      <c r="M56" s="5">
+      <c r="M56" s="2">
         <v>0</v>
       </c>
       <c r="N56">
@@ -13218,24 +13218,24 @@
       <c r="Z56">
         <v>0.592337</v>
       </c>
-      <c r="AA56" s="9">
+      <c r="AA56" s="3">
         <f t="shared" si="1"/>
         <v>3.5584208163056514</v>
       </c>
-      <c r="AB56" s="9">
+      <c r="AB56" s="3">
         <f t="shared" si="2"/>
         <v>4.4330231879609796</v>
       </c>
-      <c r="AC56" s="9">
+      <c r="AC56" s="3">
         <f t="shared" si="3"/>
         <v>3.489078007958307</v>
       </c>
-      <c r="AD56" s="9">
+      <c r="AD56" s="3">
         <f t="shared" si="4"/>
         <v>4.5072484075787944</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>5.4</v>
       </c>
@@ -13272,7 +13272,7 @@
       <c r="L57">
         <v>-360</v>
       </c>
-      <c r="M57" s="5">
+      <c r="M57" s="2">
         <v>0</v>
       </c>
       <c r="N57">
@@ -13314,24 +13314,24 @@
       <c r="Z57">
         <v>0.592337</v>
       </c>
-      <c r="AA57" s="9">
+      <c r="AA57" s="3">
         <f t="shared" si="1"/>
         <v>3.519969989598668</v>
       </c>
-      <c r="AB57" s="9">
+      <c r="AB57" s="3">
         <f t="shared" si="2"/>
         <v>4.3853930434222468</v>
       </c>
-      <c r="AC57" s="9">
+      <c r="AC57" s="3">
         <f t="shared" si="3"/>
         <v>3.4502656427000171</v>
       </c>
-      <c r="AD57" s="9">
+      <c r="AD57" s="3">
         <f t="shared" si="4"/>
         <v>4.4574625593201169</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>5.5</v>
       </c>
@@ -13368,7 +13368,7 @@
       <c r="L58">
         <v>-360</v>
       </c>
-      <c r="M58" s="5">
+      <c r="M58" s="2">
         <v>0</v>
       </c>
       <c r="N58">
@@ -13410,24 +13410,24 @@
       <c r="Z58">
         <v>0.592337</v>
       </c>
-      <c r="AA58" s="9">
+      <c r="AA58" s="3">
         <f t="shared" si="1"/>
         <v>3.4825801366761588</v>
       </c>
-      <c r="AB58" s="9">
+      <c r="AB58" s="3">
         <f t="shared" si="2"/>
         <v>4.3390796431338892</v>
       </c>
-      <c r="AC58" s="9">
+      <c r="AC58" s="3">
         <f t="shared" si="3"/>
         <v>3.4125506257417655</v>
       </c>
-      <c r="AD58" s="9">
+      <c r="AD58" s="3">
         <f t="shared" si="4"/>
         <v>4.4090779404291816</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>5.6</v>
       </c>
@@ -13464,7 +13464,7 @@
       <c r="L59">
         <v>-360</v>
       </c>
-      <c r="M59" s="5">
+      <c r="M59" s="2">
         <v>0</v>
       </c>
       <c r="N59">
@@ -13506,24 +13506,24 @@
       <c r="Z59">
         <v>0.592337</v>
       </c>
-      <c r="AA59" s="9">
+      <c r="AA59" s="3">
         <f t="shared" si="1"/>
         <v>3.4462038926370315</v>
       </c>
-      <c r="AB59" s="9">
+      <c r="AB59" s="3">
         <f t="shared" si="2"/>
         <v>4.294016676234377</v>
       </c>
-      <c r="AC59" s="9">
+      <c r="AC59" s="3">
         <f t="shared" si="3"/>
         <v>3.3758654279573959</v>
       </c>
-      <c r="AD59" s="9">
+      <c r="AD59" s="3">
         <f t="shared" si="4"/>
         <v>4.3620270217798316</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>5.7</v>
       </c>
@@ -13560,7 +13560,7 @@
       <c r="L60">
         <v>-360</v>
       </c>
-      <c r="M60" s="5">
+      <c r="M60" s="2">
         <v>0</v>
       </c>
       <c r="N60">
@@ -13602,24 +13602,24 @@
       <c r="Z60">
         <v>0.592337</v>
       </c>
-      <c r="AA60" s="9">
+      <c r="AA60" s="3">
         <f t="shared" si="1"/>
         <v>3.4107938925801937</v>
       </c>
-      <c r="AB60" s="9">
+      <c r="AB60" s="3">
         <f t="shared" si="2"/>
         <v>4.2501378318621796</v>
       </c>
-      <c r="AC60" s="9">
+      <c r="AC60" s="3">
         <f t="shared" si="3"/>
         <v>3.3401931670653702</v>
       </c>
-      <c r="AD60" s="9">
+      <c r="AD60" s="3">
         <f t="shared" si="4"/>
         <v>4.3162422742459103</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>5.8</v>
       </c>
@@ -13656,7 +13656,7 @@
       <c r="L61">
         <v>-360</v>
       </c>
-      <c r="M61" s="5">
+      <c r="M61" s="2">
         <v>0</v>
       </c>
       <c r="N61">
@@ -13698,24 +13698,24 @@
       <c r="Z61">
         <v>0.592337</v>
       </c>
-      <c r="AA61" s="9">
+      <c r="AA61" s="3">
         <f t="shared" si="1"/>
         <v>3.3763122445847711</v>
       </c>
-      <c r="AB61" s="9">
+      <c r="AB61" s="3">
         <f t="shared" si="2"/>
         <v>4.2074146910766421</v>
       </c>
-      <c r="AC61" s="9">
+      <c r="AC61" s="3">
         <f t="shared" si="3"/>
         <v>3.3054663139395308</v>
       </c>
-      <c r="AD61" s="9">
+      <c r="AD61" s="3">
         <f t="shared" si="4"/>
         <v>4.2716899332643408</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>5.9</v>
       </c>
@@ -13752,7 +13752,7 @@
       <c r="L62">
         <v>-360</v>
       </c>
-      <c r="M62" s="5">
+      <c r="M62" s="2">
         <v>0</v>
       </c>
       <c r="N62">
@@ -13794,24 +13794,24 @@
       <c r="Z62">
         <v>0.592337</v>
       </c>
-      <c r="AA62" s="9">
+      <c r="AA62" s="3">
         <f t="shared" si="1"/>
         <v>3.3427210567298893</v>
       </c>
-      <c r="AB62" s="9">
+      <c r="AB62" s="3">
         <f t="shared" si="2"/>
         <v>4.1657809430162347</v>
       </c>
-      <c r="AC62" s="9">
+      <c r="AC62" s="3">
         <f t="shared" si="3"/>
         <v>3.2716511040168013</v>
       </c>
-      <c r="AD62" s="9">
+      <c r="AD62" s="3">
         <f t="shared" si="4"/>
         <v>4.2283024697089662</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>6</v>
       </c>
@@ -13848,7 +13848,7 @@
       <c r="L63">
         <v>-360</v>
       </c>
-      <c r="M63" s="5">
+      <c r="M63" s="2">
         <v>0</v>
       </c>
       <c r="N63">
@@ -13890,24 +13890,24 @@
       <c r="Z63">
         <v>0.592337</v>
       </c>
-      <c r="AA63" s="9">
+      <c r="AA63" s="3">
         <f t="shared" si="1"/>
         <v>3.3099729641144564</v>
       </c>
-      <c r="AB63" s="9">
+      <c r="AB63" s="3">
         <f t="shared" si="2"/>
         <v>4.1251892227798654</v>
       </c>
-      <c r="AC63" s="9">
+      <c r="AC63" s="3">
         <f t="shared" si="3"/>
         <v>3.2387137727341027</v>
       </c>
-      <c r="AD63" s="9">
+      <c r="AD63" s="3">
         <f t="shared" si="4"/>
         <v>4.1860123544536307</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>6.1</v>
       </c>
@@ -13944,7 +13944,7 @@
       <c r="L64">
         <v>-360</v>
       </c>
-      <c r="M64" s="5">
+      <c r="M64" s="2">
         <v>0</v>
       </c>
       <c r="N64">
@@ -13986,24 +13986,24 @@
       <c r="Z64">
         <v>0.592337</v>
       </c>
-      <c r="AA64" s="9">
+      <c r="AA64" s="3">
         <f t="shared" si="1"/>
         <v>3.2780490207780351</v>
       </c>
-      <c r="AB64" s="9">
+      <c r="AB64" s="3">
         <f t="shared" si="2"/>
         <v>4.0856111114268776</v>
       </c>
-      <c r="AC64" s="9">
+      <c r="AC64" s="3">
         <f t="shared" si="3"/>
         <v>3.2066205555283562</v>
       </c>
-      <c r="AD64" s="9">
+      <c r="AD64" s="3">
         <f t="shared" si="4"/>
         <v>4.1448195874983327</v>
       </c>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>6.2</v>
       </c>
@@ -14040,7 +14040,7 @@
       <c r="L65">
         <v>-360</v>
       </c>
-      <c r="M65" s="5">
+      <c r="M65" s="2">
         <v>0</v>
       </c>
       <c r="N65">
@@ -14082,24 +14082,24 @@
       <c r="Z65">
         <v>0.592337</v>
       </c>
-      <c r="AA65" s="9">
+      <c r="AA65" s="3">
         <f t="shared" si="1"/>
         <v>3.2469018618195324</v>
       </c>
-      <c r="AB65" s="9">
+      <c r="AB65" s="3">
         <f t="shared" si="2"/>
         <v>4.0469992440561784</v>
       </c>
-      <c r="AC65" s="9">
+      <c r="AC65" s="3">
         <f t="shared" si="3"/>
         <v>3.175320805554946</v>
       </c>
-      <c r="AD65" s="9">
+      <c r="AD65" s="3">
         <f t="shared" si="4"/>
         <v>4.104639757435379</v>
       </c>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>6.3</v>
       </c>
@@ -14136,7 +14136,7 @@
       <c r="L66">
         <v>-360</v>
       </c>
-      <c r="M66" s="5">
+      <c r="M66" s="2">
         <v>0</v>
       </c>
       <c r="N66">
@@ -14178,24 +14178,24 @@
       <c r="Z66">
         <v>0.592337</v>
       </c>
-      <c r="AA66" s="9">
+      <c r="AA66" s="3">
         <f t="shared" si="1"/>
         <v>3.2165030682982927</v>
       </c>
-      <c r="AB66" s="9">
+      <c r="AB66" s="3">
         <f t="shared" si="2"/>
         <v>4.0093157287468948</v>
       </c>
-      <c r="AC66" s="9">
+      <c r="AC66" s="3">
         <f t="shared" si="3"/>
         <v>3.1447976405323317</v>
       </c>
-      <c r="AD66" s="9">
+      <c r="AD66" s="3">
         <f t="shared" si="4"/>
         <v>4.06543909970169</v>
       </c>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>6.4</v>
       </c>
@@ -14232,7 +14232,7 @@
       <c r="L67">
         <v>-360</v>
       </c>
-      <c r="M67" s="5">
+      <c r="M67" s="2">
         <v>0</v>
       </c>
       <c r="N67">
@@ -14274,24 +14274,24 @@
       <c r="Z67">
         <v>0.592337</v>
       </c>
-      <c r="AA67" s="9">
+      <c r="AA67" s="3">
         <f t="shared" si="1"/>
         <v>3.1868336942538802</v>
       </c>
-      <c r="AB67" s="9">
+      <c r="AB67" s="3">
         <f t="shared" si="2"/>
         <v>3.9725226735781529</v>
       </c>
-      <c r="AC67" s="9">
+      <c r="AC67" s="3">
         <f t="shared" si="3"/>
         <v>3.1150172958974371</v>
       </c>
-      <c r="AD67" s="9">
+      <c r="AD67" s="3">
         <f t="shared" si="4"/>
         <v>4.0272007320157277</v>
       </c>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>6.5</v>
       </c>
@@ -14328,7 +14328,7 @@
       <c r="L68">
         <v>-360</v>
       </c>
-      <c r="M68" s="5">
+      <c r="M68" s="2">
         <v>0</v>
       </c>
       <c r="N68">
@@ -14370,24 +14370,24 @@
       <c r="Z68">
         <v>0.592337</v>
       </c>
-      <c r="AA68" s="9">
+      <c r="AA68" s="3">
         <f t="shared" ref="AA68:AA112" si="5">-F68/W68*10</f>
         <v>3.1578558477654184</v>
       </c>
-      <c r="AB68" s="9">
+      <c r="AB68" s="3">
         <f t="shared" ref="AB68:AB112" si="6">-G68/X68*10</f>
         <v>3.9365916596092965</v>
       </c>
-      <c r="AC68" s="9">
+      <c r="AC68" s="3">
         <f t="shared" ref="AC68:AC112" si="7">-H68/Y68*10</f>
         <v>3.0859460070871818</v>
       </c>
-      <c r="AD68" s="9">
+      <c r="AD68" s="3">
         <f t="shared" ref="AD68:AD112" si="8">-I68/Z68*10</f>
         <v>3.9898740075328738</v>
       </c>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>6.6</v>
       </c>
@@ -14424,7 +14424,7 @@
       <c r="L69">
         <v>-360</v>
       </c>
-      <c r="M69" s="5">
+      <c r="M69" s="2">
         <v>0</v>
       </c>
       <c r="N69">
@@ -14466,24 +14466,24 @@
       <c r="Z69">
         <v>0.592337</v>
       </c>
-      <c r="AA69" s="9">
+      <c r="AA69" s="3">
         <f t="shared" si="5"/>
         <v>3.129550582872473</v>
       </c>
-      <c r="AB69" s="9">
+      <c r="AB69" s="3">
         <f t="shared" si="6"/>
         <v>3.9014847949194515</v>
       </c>
-      <c r="AC69" s="9">
+      <c r="AC69" s="3">
         <f t="shared" si="7"/>
         <v>3.0575668918200281</v>
       </c>
-      <c r="AD69" s="9">
+      <c r="AD69" s="3">
         <f t="shared" si="8"/>
         <v>3.9534082794085124</v>
       </c>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>6.7</v>
       </c>
@@ -14520,7 +14520,7 @@
       <c r="L70">
         <v>-360</v>
       </c>
-      <c r="M70" s="5">
+      <c r="M70" s="2">
         <v>0</v>
       </c>
       <c r="N70">
@@ -14562,24 +14562,24 @@
       <c r="Z70">
         <v>0.592337</v>
       </c>
-      <c r="AA70" s="9">
+      <c r="AA70" s="3">
         <f t="shared" si="5"/>
         <v>3.1018894806343864</v>
       </c>
-      <c r="AB70" s="9">
+      <c r="AB70" s="3">
         <f t="shared" si="6"/>
         <v>3.8671736605679619</v>
       </c>
-      <c r="AC70" s="9">
+      <c r="AC70" s="3">
         <f t="shared" si="7"/>
         <v>3.0298461855328975</v>
       </c>
-      <c r="AD70" s="9">
+      <c r="AD70" s="3">
         <f t="shared" si="8"/>
         <v>3.9178035476426425</v>
       </c>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>6.8</v>
       </c>
@@ -14616,7 +14616,7 @@
       <c r="L71">
         <v>-360</v>
       </c>
-      <c r="M71" s="5">
+      <c r="M71" s="2">
         <v>0</v>
       </c>
       <c r="N71">
@@ -14658,24 +14658,24 @@
       <c r="Z71">
         <v>0.592337</v>
       </c>
-      <c r="AA71" s="9">
+      <c r="AA71" s="3">
         <f t="shared" si="5"/>
         <v>3.0748441221105045</v>
       </c>
-      <c r="AB71" s="9">
+      <c r="AB71" s="3">
         <f t="shared" si="6"/>
         <v>3.8336298376141738</v>
       </c>
-      <c r="AC71" s="9">
+      <c r="AC71" s="3">
         <f t="shared" si="7"/>
         <v>3.0027501236627123</v>
       </c>
-      <c r="AD71" s="9">
+      <c r="AD71" s="3">
         <f t="shared" si="8"/>
         <v>3.8829922831091084</v>
       </c>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>6.9</v>
       </c>
@@ -14712,7 +14712,7 @@
       <c r="L72">
         <v>-360</v>
       </c>
-      <c r="M72" s="5">
+      <c r="M72" s="2">
         <v>0</v>
       </c>
       <c r="N72">
@@ -14754,24 +14754,24 @@
       <c r="Z72">
         <v>0.592337</v>
       </c>
-      <c r="AA72" s="9">
+      <c r="AA72" s="3">
         <f t="shared" si="5"/>
         <v>3.048395561340389</v>
       </c>
-      <c r="AB72" s="9">
+      <c r="AB72" s="3">
         <f t="shared" si="6"/>
         <v>3.8008249071174287</v>
       </c>
-      <c r="AC72" s="9">
+      <c r="AC72" s="3">
         <f t="shared" si="7"/>
         <v>2.976261823927933</v>
       </c>
-      <c r="AD72" s="9">
+      <c r="AD72" s="3">
         <f t="shared" si="8"/>
         <v>3.84897448580791</v>
       </c>
     </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>7</v>
       </c>
@@ -14808,7 +14808,7 @@
       <c r="L73">
         <v>-360</v>
       </c>
-      <c r="M73" s="5">
+      <c r="M73" s="2">
         <v>0</v>
       </c>
       <c r="N73">
@@ -14850,24 +14850,24 @@
       <c r="Z73">
         <v>0.592337</v>
       </c>
-      <c r="AA73" s="9">
+      <c r="AA73" s="3">
         <f t="shared" si="5"/>
         <v>3.0225248523636035</v>
       </c>
-      <c r="AB73" s="9">
+      <c r="AB73" s="3">
         <f t="shared" si="6"/>
         <v>3.7687304501370744</v>
       </c>
-      <c r="AC73" s="9">
+      <c r="AC73" s="3">
         <f t="shared" si="7"/>
         <v>2.9503812863285592</v>
       </c>
-      <c r="AD73" s="9">
+      <c r="AD73" s="3">
         <f t="shared" si="8"/>
         <v>3.8156995088944301</v>
       </c>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>7.1</v>
       </c>
@@ -14904,7 +14904,7 @@
       <c r="L74">
         <v>-360</v>
       </c>
-      <c r="M74" s="5">
+      <c r="M74" s="2">
         <v>0</v>
       </c>
       <c r="N74">
@@ -14946,24 +14946,24 @@
       <c r="Z74">
         <v>0.592337</v>
       </c>
-      <c r="AA74" s="9">
+      <c r="AA74" s="3">
         <f t="shared" si="5"/>
         <v>2.9972130492197109</v>
       </c>
-      <c r="AB74" s="9">
+      <c r="AB74" s="3">
         <f t="shared" si="6"/>
         <v>3.7373275207126717</v>
       </c>
-      <c r="AC74" s="9">
+      <c r="AC74" s="3">
         <f t="shared" si="7"/>
         <v>2.9250578640199754</v>
       </c>
-      <c r="AD74" s="9">
+      <c r="AD74" s="3">
         <f t="shared" si="8"/>
         <v>3.7831673523686686</v>
       </c>
     </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>7.2</v>
       </c>
@@ -15000,7 +15000,7 @@
       <c r="L75">
         <v>-360</v>
       </c>
-      <c r="M75" s="5">
+      <c r="M75" s="2">
         <v>0</v>
       </c>
       <c r="N75">
@@ -15042,24 +15042,24 @@
       <c r="Z75">
         <v>0.592337</v>
       </c>
-      <c r="AA75" s="9">
+      <c r="AA75" s="3">
         <f t="shared" si="5"/>
         <v>2.9724412059482734</v>
       </c>
-      <c r="AB75" s="9">
+      <c r="AB75" s="3">
         <f t="shared" si="6"/>
         <v>3.7065876999035652</v>
       </c>
-      <c r="AC75" s="9">
+      <c r="AC75" s="3">
         <f t="shared" si="7"/>
         <v>2.9002746747206403</v>
       </c>
-      <c r="AD75" s="9">
+      <c r="AD75" s="3">
         <f t="shared" si="8"/>
         <v>3.7513273693860083</v>
       </c>
     </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>7.3</v>
       </c>
@@ -15096,7 +15096,7 @@
       <c r="L76">
         <v>-360</v>
       </c>
-      <c r="M76" s="5">
+      <c r="M76" s="2">
         <v>0</v>
       </c>
       <c r="N76">
@@ -15138,24 +15138,24 @@
       <c r="Z76">
         <v>0.592337</v>
       </c>
-      <c r="AA76" s="9">
+      <c r="AA76" s="3">
         <f t="shared" si="5"/>
         <v>2.948180903608637</v>
       </c>
-      <c r="AB76" s="9">
+      <c r="AB76" s="3">
         <f t="shared" si="6"/>
         <v>3.6764920417493183</v>
       </c>
-      <c r="AC76" s="9">
+      <c r="AC76" s="3">
         <f t="shared" si="7"/>
         <v>2.8760317184305557</v>
       </c>
-      <c r="AD76" s="9">
+      <c r="AD76" s="3">
         <f t="shared" si="8"/>
         <v>3.7201626776649106</v>
       </c>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>7.4</v>
       </c>
@@ -15192,7 +15192,7 @@
       <c r="L77">
         <v>-360</v>
       </c>
-      <c r="M77" s="5">
+      <c r="M77" s="2">
         <v>0</v>
       </c>
       <c r="N77">
@@ -15234,24 +15234,24 @@
       <c r="Z77">
         <v>0.592337</v>
       </c>
-      <c r="AA77" s="9">
+      <c r="AA77" s="3">
         <f t="shared" si="5"/>
         <v>2.9244321422008008</v>
       </c>
-      <c r="AB77" s="9">
+      <c r="AB77" s="3">
         <f t="shared" si="6"/>
         <v>3.6470121273092762</v>
       </c>
-      <c r="AC77" s="9">
+      <c r="AC77" s="3">
         <f t="shared" si="7"/>
         <v>2.852295230586642</v>
       </c>
-      <c r="AD77" s="9">
+      <c r="AD77" s="3">
         <f t="shared" si="8"/>
         <v>3.6896563949238352</v>
       </c>
     </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>7.5</v>
       </c>
@@ -15288,7 +15288,7 @@
       <c r="L78">
         <v>-360</v>
       </c>
-      <c r="M78" s="5">
+      <c r="M78" s="2">
         <v>0</v>
       </c>
       <c r="N78">
@@ -15330,24 +15330,24 @@
       <c r="Z78">
         <v>0.592337</v>
       </c>
-      <c r="AA78" s="9">
+      <c r="AA78" s="3">
         <f t="shared" si="5"/>
         <v>2.9011570298038905</v>
       </c>
-      <c r="AB78" s="9">
+      <c r="AB78" s="3">
         <f t="shared" si="6"/>
         <v>3.618129010623</v>
       </c>
-      <c r="AC78" s="9">
+      <c r="AC78" s="3">
         <f t="shared" si="7"/>
         <v>2.829048328907362</v>
       </c>
-      <c r="AD78" s="9">
+      <c r="AD78" s="3">
         <f t="shared" si="8"/>
         <v>3.6597747565997056</v>
       </c>
     </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>7.6</v>
       </c>
@@ -15384,7 +15384,7 @@
       <c r="L79">
         <v>-360</v>
       </c>
-      <c r="M79" s="5">
+      <c r="M79" s="2">
         <v>0</v>
       </c>
       <c r="N79">
@@ -15426,24 +15426,24 @@
       <c r="Z79">
         <v>0.592337</v>
       </c>
-      <c r="AA79" s="9">
+      <c r="AA79" s="3">
         <f t="shared" si="5"/>
         <v>2.8783555664179064</v>
       </c>
-      <c r="AB79" s="9">
+      <c r="AB79" s="3">
         <f t="shared" si="6"/>
         <v>3.5898332187102726</v>
       </c>
-      <c r="AC79" s="9">
+      <c r="AC79" s="3">
         <f t="shared" si="7"/>
         <v>2.8062910133927144</v>
       </c>
-      <c r="AD79" s="9">
+      <c r="AD79" s="3">
         <f t="shared" si="8"/>
         <v>3.6305008804109824</v>
       </c>
     </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>7.7</v>
       </c>
@@ -15480,7 +15480,7 @@
       <c r="L80">
         <v>-360</v>
       </c>
-      <c r="M80" s="5">
+      <c r="M80" s="2">
         <v>0</v>
       </c>
       <c r="N80">
@@ -15522,24 +15522,24 @@
       <c r="Z80">
         <v>0.592337</v>
       </c>
-      <c r="AA80" s="9">
+      <c r="AA80" s="3">
         <f t="shared" si="5"/>
         <v>2.8560088060824111</v>
       </c>
-      <c r="AB80" s="9">
+      <c r="AB80" s="3">
         <f t="shared" si="6"/>
         <v>3.5620963326304382</v>
       </c>
-      <c r="AC80" s="9">
+      <c r="AC80" s="3">
         <f t="shared" si="7"/>
         <v>2.7839895194796203</v>
       </c>
-      <c r="AD80" s="9">
+      <c r="AD80" s="3">
         <f t="shared" si="8"/>
         <v>3.6018347663576651</v>
       </c>
     </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>7.8</v>
       </c>
@@ -15576,7 +15576,7 @@
       <c r="L81">
         <v>-360</v>
       </c>
-      <c r="M81" s="5">
+      <c r="M81" s="2">
         <v>0</v>
       </c>
       <c r="N81">
@@ -15618,24 +15618,24 @@
       <c r="Z81">
         <v>0.592337</v>
       </c>
-      <c r="AA81" s="9">
+      <c r="AA81" s="3">
         <f t="shared" si="5"/>
         <v>2.8340978028369683</v>
       </c>
-      <c r="AB81" s="9">
+      <c r="AB81" s="3">
         <f t="shared" si="6"/>
         <v>3.5348994064230594</v>
       </c>
-      <c r="AC81" s="9">
+      <c r="AC81" s="3">
         <f t="shared" si="7"/>
         <v>2.7621269648865425</v>
       </c>
-      <c r="AD81" s="9">
+      <c r="AD81" s="3">
         <f t="shared" si="8"/>
         <v>3.5737257675951364</v>
       </c>
     </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>7.9</v>
       </c>
@@ -15672,7 +15672,7 @@
       <c r="L82">
         <v>-360</v>
       </c>
-      <c r="M82" s="5">
+      <c r="M82" s="2">
         <v>0</v>
       </c>
       <c r="N82">
@@ -15714,24 +15714,24 @@
       <c r="Z82">
         <v>0.592337</v>
       </c>
-      <c r="AA82" s="9">
+      <c r="AA82" s="3">
         <f t="shared" si="5"/>
         <v>2.8126130837013585</v>
       </c>
-      <c r="AB82" s="9">
+      <c r="AB82" s="3">
         <f t="shared" si="6"/>
         <v>3.5082329671079182</v>
       </c>
-      <c r="AC82" s="9">
+      <c r="AC82" s="3">
         <f t="shared" si="7"/>
         <v>2.7407033496134798</v>
       </c>
-      <c r="AD82" s="9">
+      <c r="AD82" s="3">
         <f t="shared" si="8"/>
         <v>3.5461738841233958</v>
       </c>
     </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>8</v>
       </c>
@@ -15768,7 +15768,7 @@
       <c r="L83">
         <v>-360</v>
       </c>
-      <c r="M83" s="5">
+      <c r="M83" s="2">
         <v>0</v>
       </c>
       <c r="N83">
@@ -15810,24 +15810,24 @@
       <c r="Z83">
         <v>0.592337</v>
       </c>
-      <c r="AA83" s="9">
+      <c r="AA83" s="3">
         <f t="shared" si="5"/>
         <v>2.7915451756953642</v>
       </c>
-      <c r="AB83" s="9">
+      <c r="AB83" s="3">
         <f t="shared" si="6"/>
         <v>3.4820685957443582</v>
       </c>
-      <c r="AC83" s="9">
+      <c r="AC83" s="3">
         <f t="shared" si="7"/>
         <v>2.7196849090973547</v>
       </c>
-      <c r="AD83" s="9">
+      <c r="AD83" s="3">
         <f t="shared" si="8"/>
         <v>3.5191622336609059</v>
       </c>
     </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>8.1</v>
       </c>
@@ -15864,7 +15864,7 @@
       <c r="L84">
         <v>-360</v>
       </c>
-      <c r="M84" s="5">
+      <c r="M84" s="2">
         <v>0</v>
       </c>
       <c r="N84">
@@ -15906,24 +15906,24 @@
       <c r="Z84">
         <v>0.592337</v>
       </c>
-      <c r="AA84" s="9">
+      <c r="AA84" s="3">
         <f t="shared" si="5"/>
         <v>2.7708751328585479</v>
       </c>
-      <c r="AB84" s="9">
+      <c r="AB84" s="3">
         <f t="shared" si="6"/>
         <v>3.4564062923323808</v>
       </c>
-      <c r="AC84" s="9">
+      <c r="AC84" s="3">
         <f t="shared" si="7"/>
         <v>2.6990885256197061</v>
       </c>
-      <c r="AD84" s="9">
+      <c r="AD84" s="3">
         <f t="shared" si="8"/>
         <v>3.4926570516445876</v>
       </c>
     </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>8.1999999999999993</v>
       </c>
@@ -15960,7 +15960,7 @@
       <c r="L85">
         <v>-360</v>
       </c>
-      <c r="M85" s="5">
+      <c r="M85" s="2">
         <v>0</v>
       </c>
       <c r="N85">
@@ -16002,24 +16002,24 @@
       <c r="Z85">
         <v>0.592337</v>
       </c>
-      <c r="AA85" s="9">
+      <c r="AA85" s="3">
         <f t="shared" si="5"/>
         <v>2.7505934822106908</v>
       </c>
-      <c r="AB85" s="9">
+      <c r="AB85" s="3">
         <f t="shared" si="6"/>
         <v>3.4312176379313284</v>
       </c>
-      <c r="AC85" s="9">
+      <c r="AC85" s="3">
         <f t="shared" si="7"/>
         <v>2.6788804346174553</v>
       </c>
-      <c r="AD85" s="9">
+      <c r="AD85" s="3">
         <f t="shared" si="8"/>
         <v>3.4666752203559796</v>
       </c>
     </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>8.3000000000000007</v>
       </c>
@@ -16056,7 +16056,7 @@
       <c r="L86">
         <v>-360</v>
       </c>
-      <c r="M86" s="5">
+      <c r="M86" s="2">
         <v>0</v>
       </c>
       <c r="N86">
@@ -16098,24 +16098,24 @@
       <c r="Z86">
         <v>0.592337</v>
       </c>
-      <c r="AA86" s="9">
+      <c r="AA86" s="3">
         <f t="shared" si="5"/>
         <v>2.7306812777913558</v>
       </c>
-      <c r="AB86" s="9">
+      <c r="AB86" s="3">
         <f t="shared" si="6"/>
         <v>3.4064931595609842</v>
       </c>
-      <c r="AC86" s="9">
+      <c r="AC86" s="3">
         <f t="shared" si="7"/>
         <v>2.6590606360906039</v>
       </c>
-      <c r="AD86" s="9">
+      <c r="AD86" s="3">
         <f t="shared" si="8"/>
         <v>3.4411660929504655</v>
       </c>
     </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>8.4</v>
       </c>
@@ -16152,7 +16152,7 @@
       <c r="L87">
         <v>-360</v>
       </c>
-      <c r="M87" s="5">
+      <c r="M87" s="2">
         <v>0</v>
       </c>
       <c r="N87">
@@ -16194,24 +16194,24 @@
       <c r="Z87">
         <v>0.592337</v>
       </c>
-      <c r="AA87" s="9">
+      <c r="AA87" s="3">
         <f t="shared" si="5"/>
         <v>2.7111385196005431</v>
       </c>
-      <c r="AB87" s="9">
+      <c r="AB87" s="3">
         <f t="shared" si="6"/>
         <v>3.3822233842411293</v>
       </c>
-      <c r="AC87" s="9">
+      <c r="AC87" s="3">
         <f t="shared" si="7"/>
         <v>2.6395953654760715</v>
       </c>
-      <c r="AD87" s="9">
+      <c r="AD87" s="3">
         <f t="shared" si="8"/>
         <v>3.4161296694280452</v>
       </c>
     </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>8.5</v>
       </c>
@@ -16248,7 +16248,7 @@
       <c r="L88">
         <v>-360</v>
       </c>
-      <c r="M88" s="5">
+      <c r="M88" s="2">
         <v>0</v>
       </c>
       <c r="N88">
@@ -16290,24 +16290,24 @@
       <c r="Z88">
         <v>0.592337</v>
       </c>
-      <c r="AA88" s="9">
+      <c r="AA88" s="3">
         <f t="shared" si="5"/>
         <v>2.6919462616778169</v>
       </c>
-      <c r="AB88" s="9">
+      <c r="AB88" s="3">
         <f t="shared" si="6"/>
         <v>3.3583893660113255</v>
       </c>
-      <c r="AC88" s="9">
+      <c r="AC88" s="3">
         <f t="shared" si="7"/>
         <v>2.6204846227738599</v>
       </c>
-      <c r="AD88" s="9">
+      <c r="AD88" s="3">
         <f t="shared" si="8"/>
         <v>3.3915659497887178</v>
       </c>
     </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>8.6</v>
       </c>
@@ -16344,7 +16344,7 @@
       <c r="L89">
         <v>-360</v>
       </c>
-      <c r="M89" s="5">
+      <c r="M89" s="2">
         <v>0</v>
       </c>
       <c r="N89">
@@ -16386,24 +16386,24 @@
       <c r="Z89">
         <v>0.592337</v>
       </c>
-      <c r="AA89" s="9">
+      <c r="AA89" s="3">
         <f t="shared" si="5"/>
         <v>2.6730950310429562</v>
       </c>
-      <c r="AB89" s="9">
+      <c r="AB89" s="3">
         <f t="shared" si="6"/>
         <v>3.3349816318913561</v>
       </c>
-      <c r="AC89" s="9">
+      <c r="AC89" s="3">
         <f t="shared" si="7"/>
         <v>2.6017452902655074</v>
       </c>
-      <c r="AD89" s="9">
+      <c r="AD89" s="3">
         <f t="shared" si="8"/>
         <v>3.3674242871878679</v>
       </c>
     </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>8.6999999999999993</v>
       </c>
@@ -16440,7 +16440,7 @@
       <c r="L90">
         <v>-360</v>
       </c>
-      <c r="M90" s="5">
+      <c r="M90" s="2">
         <v>0</v>
       </c>
       <c r="N90">
@@ -16482,24 +16482,24 @@
       <c r="Z90">
         <v>0.592337</v>
       </c>
-      <c r="AA90" s="9">
+      <c r="AA90" s="3">
         <f t="shared" si="5"/>
         <v>2.6545848276959627</v>
       </c>
-      <c r="AB90" s="9">
+      <c r="AB90" s="3">
         <f t="shared" si="6"/>
         <v>3.3119907089010021</v>
       </c>
-      <c r="AC90" s="9">
+      <c r="AC90" s="3">
         <f t="shared" si="7"/>
         <v>2.5833267211063973</v>
       </c>
-      <c r="AD90" s="9">
+      <c r="AD90" s="3">
         <f t="shared" si="8"/>
         <v>3.3437384461885715</v>
       </c>
     </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>8.8000000000000007</v>
       </c>
@@ -16536,7 +16536,7 @@
       <c r="L91">
         <v>-360</v>
       </c>
-      <c r="M91" s="5">
+      <c r="M91" s="2">
         <v>0</v>
       </c>
       <c r="N91">
@@ -16578,24 +16578,24 @@
       <c r="Z91">
         <v>0.592337</v>
       </c>
-      <c r="AA91" s="9">
+      <c r="AA91" s="3">
         <f t="shared" si="5"/>
         <v>2.6363967056763999</v>
       </c>
-      <c r="AB91" s="9">
+      <c r="AB91" s="3">
         <f t="shared" si="6"/>
         <v>3.2893976510798248</v>
       </c>
-      <c r="AC91" s="9">
+      <c r="AC91" s="3">
         <f t="shared" si="7"/>
         <v>2.5652289152965291</v>
       </c>
-      <c r="AD91" s="9">
+      <c r="AD91" s="3">
         <f t="shared" si="8"/>
         <v>3.3204577799462132</v>
       </c>
     </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>8.9</v>
       </c>
@@ -16632,7 +16632,7 @@
       <c r="L92">
         <v>-360</v>
       </c>
-      <c r="M92" s="5">
+      <c r="M92" s="2">
         <v>0</v>
       </c>
       <c r="N92">
@@ -16674,24 +16674,24 @@
       <c r="Z92">
         <v>0.592337</v>
       </c>
-      <c r="AA92" s="9">
+      <c r="AA92" s="3">
         <f t="shared" si="5"/>
         <v>2.6185211920040468</v>
       </c>
-      <c r="AB92" s="9">
+      <c r="AB92" s="3">
         <f t="shared" si="6"/>
         <v>3.2671929854476076</v>
       </c>
-      <c r="AC92" s="9">
+      <c r="AC92" s="3">
         <f t="shared" si="7"/>
         <v>2.5474687551174418</v>
       </c>
-      <c r="AD92" s="9">
+      <c r="AD92" s="3">
         <f t="shared" si="8"/>
         <v>3.2975991707423309</v>
       </c>
     </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>9</v>
       </c>
@@ -16728,7 +16728,7 @@
       <c r="L93">
         <v>-360</v>
       </c>
-      <c r="M93" s="5">
+      <c r="M93" s="2">
         <v>0</v>
       </c>
       <c r="N93">
@@ -16770,24 +16770,24 @@
       <c r="Z93">
         <v>0.592337</v>
       </c>
-      <c r="AA93" s="9">
+      <c r="AA93" s="3">
         <f t="shared" si="5"/>
         <v>2.6009488136986874</v>
       </c>
-      <c r="AB93" s="9">
+      <c r="AB93" s="3">
         <f t="shared" si="6"/>
         <v>3.2453672390241319</v>
       </c>
-      <c r="AC93" s="9">
+      <c r="AC93" s="3">
         <f t="shared" si="7"/>
         <v>2.5300124760060569</v>
       </c>
-      <c r="AD93" s="9">
+      <c r="AD93" s="3">
         <f t="shared" si="8"/>
         <v>3.2751288540138468</v>
       </c>
     </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>9.1</v>
       </c>
@@ -16824,7 +16824,7 @@
       <c r="L94">
         <v>-360</v>
       </c>
-      <c r="M94" s="5">
+      <c r="M94" s="2">
         <v>0</v>
       </c>
       <c r="N94">
@@ -16866,24 +16866,24 @@
       <c r="Z94">
         <v>0.592337</v>
       </c>
-      <c r="AA94" s="9">
+      <c r="AA94" s="3">
         <f t="shared" si="5"/>
         <v>2.5836795707603204</v>
       </c>
-      <c r="AB94" s="9">
+      <c r="AB94" s="3">
         <f t="shared" si="6"/>
         <v>3.2239109388291776</v>
       </c>
-      <c r="AC94" s="9">
+      <c r="AC94" s="3">
         <f t="shared" si="7"/>
         <v>2.512843195680837</v>
       </c>
-      <c r="AD94" s="9">
+      <c r="AD94" s="3">
         <f t="shared" si="8"/>
         <v>3.2530468297607613</v>
       </c>
     </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>9.1999999999999993</v>
       </c>
@@ -16920,7 +16920,7 @@
       <c r="L95">
         <v>-360</v>
       </c>
-      <c r="M95" s="5">
+      <c r="M95" s="2">
         <v>0</v>
       </c>
       <c r="N95">
@@ -16962,24 +16962,24 @@
       <c r="Z95">
         <v>0.592337</v>
       </c>
-      <c r="AA95" s="9">
+      <c r="AA95" s="3">
         <f t="shared" si="5"/>
         <v>2.5666945172285094</v>
       </c>
-      <c r="AB95" s="9">
+      <c r="AB95" s="3">
         <f t="shared" si="6"/>
         <v>3.2028146118825278</v>
       </c>
-      <c r="AC95" s="9">
+      <c r="AC95" s="3">
         <f t="shared" si="7"/>
         <v>2.4959777964233201</v>
       </c>
-      <c r="AD95" s="9">
+      <c r="AD95" s="3">
         <f t="shared" si="8"/>
         <v>3.2313362157015346</v>
       </c>
     </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>9.3000000000000007</v>
       </c>
@@ -17016,7 +17016,7 @@
       <c r="L96">
         <v>-360</v>
       </c>
-      <c r="M96" s="5">
+      <c r="M96" s="2">
         <v>0</v>
       </c>
       <c r="N96">
@@ -17058,24 +17058,24 @@
       <c r="Z96">
         <v>0.592337</v>
       </c>
-      <c r="AA96" s="9">
+      <c r="AA96" s="3">
         <f t="shared" si="5"/>
         <v>2.5499936531032534</v>
       </c>
-      <c r="AB96" s="9">
+      <c r="AB96" s="3">
         <f t="shared" si="6"/>
         <v>3.1820593122237444</v>
       </c>
-      <c r="AC96" s="9">
+      <c r="AC96" s="3">
         <f t="shared" si="7"/>
         <v>2.4793993959519662</v>
       </c>
-      <c r="AD96" s="9">
+      <c r="AD96" s="3">
         <f t="shared" si="8"/>
         <v>3.2099801295546286</v>
       </c>
     </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>9.4</v>
       </c>
@@ -17112,7 +17112,7 @@
       <c r="L97">
         <v>-360</v>
       </c>
-      <c r="M97" s="5">
+      <c r="M97" s="2">
         <v>0</v>
       </c>
       <c r="N97">
@@ -17154,24 +17154,24 @@
       <c r="Z97">
         <v>0.592337</v>
       </c>
-      <c r="AA97" s="9">
+      <c r="AA97" s="3">
         <f t="shared" si="5"/>
         <v>2.5335675054043354</v>
       </c>
-      <c r="AB97" s="9">
+      <c r="AB97" s="3">
         <f t="shared" si="6"/>
         <v>3.1616545128330467</v>
       </c>
-      <c r="AC97" s="9">
+      <c r="AC97" s="3">
         <f t="shared" si="7"/>
         <v>2.4630911119852379</v>
       </c>
-      <c r="AD97" s="9">
+      <c r="AD97" s="3">
         <f t="shared" si="8"/>
         <v>3.1889954536015819</v>
       </c>
     </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>9.5</v>
       </c>
@@ -17208,7 +17208,7 @@
       <c r="L98">
         <v>-360</v>
       </c>
-      <c r="M98" s="5">
+      <c r="M98" s="2">
         <v>0</v>
       </c>
       <c r="N98">
@@ -17250,24 +17250,24 @@
       <c r="Z98">
         <v>0.592337</v>
       </c>
-      <c r="AA98" s="9">
+      <c r="AA98" s="3">
         <f t="shared" si="5"/>
         <v>2.5174160741317539</v>
       </c>
-      <c r="AB98" s="9">
+      <c r="AB98" s="3">
         <f t="shared" si="6"/>
         <v>3.1415717947697788</v>
       </c>
-      <c r="AC98" s="9">
+      <c r="AC98" s="3">
         <f t="shared" si="7"/>
         <v>2.4470698268046736</v>
       </c>
-      <c r="AD98" s="9">
+      <c r="AD98" s="3">
         <f t="shared" si="8"/>
         <v>3.1683484232793155</v>
       </c>
     </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>9.6</v>
       </c>
@@ -17304,7 +17304,7 @@
       <c r="L99">
         <v>-360</v>
       </c>
-      <c r="M99" s="5">
+      <c r="M99" s="2">
         <v>0</v>
       </c>
       <c r="N99">
@@ -17346,24 +17346,24 @@
       <c r="Z99">
         <v>0.592337</v>
       </c>
-      <c r="AA99" s="9">
+      <c r="AA99" s="3">
         <f t="shared" si="5"/>
         <v>2.501510940344855</v>
       </c>
-      <c r="AB99" s="9">
+      <c r="AB99" s="3">
         <f t="shared" si="6"/>
         <v>3.1218206310141583</v>
       </c>
-      <c r="AC99" s="9">
+      <c r="AC99" s="3">
         <f t="shared" si="7"/>
         <v>2.4312848935656559</v>
       </c>
-      <c r="AD99" s="9">
+      <c r="AD99" s="3">
         <f t="shared" si="8"/>
         <v>3.148039038587831</v>
       </c>
     </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>9.6999999999999993</v>
       </c>
@@ -17400,7 +17400,7 @@
       <c r="L100">
         <v>-360</v>
       </c>
-      <c r="M100" s="5">
+      <c r="M100" s="2">
         <v>0</v>
       </c>
       <c r="N100">
@@ -17442,24 +17442,24 @@
       <c r="Z100">
         <v>0.592337</v>
       </c>
-      <c r="AA100" s="9">
+      <c r="AA100" s="3">
         <f t="shared" si="5"/>
         <v>2.4858710500040737</v>
       </c>
-      <c r="AB100" s="9">
+      <c r="AB100" s="3">
         <f t="shared" si="6"/>
         <v>3.1023820756057501</v>
       </c>
-      <c r="AC100" s="9">
+      <c r="AC100" s="3">
         <f t="shared" si="7"/>
         <v>2.4157700768312633</v>
       </c>
-      <c r="AD100" s="9">
+      <c r="AD100" s="3">
         <f t="shared" si="8"/>
         <v>3.1280672995271273</v>
       </c>
     </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>9.8000000000000007</v>
       </c>
@@ -17496,7 +17496,7 @@
       <c r="L101">
         <v>-360</v>
       </c>
-      <c r="M101" s="5">
+      <c r="M101" s="2">
         <v>0</v>
       </c>
       <c r="N101">
@@ -17538,24 +17538,24 @@
       <c r="Z101">
         <v>0.592337</v>
       </c>
-      <c r="AA101" s="9">
+      <c r="AA101" s="3">
         <f t="shared" si="5"/>
         <v>2.4704774571489745</v>
       </c>
-      <c r="AB101" s="9">
+      <c r="AB101" s="3">
         <f t="shared" si="6"/>
         <v>3.0832466555643339</v>
       </c>
-      <c r="AC101" s="9">
+      <c r="AC101" s="3">
         <f t="shared" si="7"/>
         <v>2.4005084943199564</v>
       </c>
-      <c r="AD101" s="9">
+      <c r="AD101" s="3">
         <f t="shared" si="8"/>
         <v>3.1084163238156659</v>
       </c>
     </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>9.9</v>
       </c>
@@ -17592,7 +17592,7 @@
       <c r="L102">
         <v>-360</v>
       </c>
-      <c r="M102" s="5">
+      <c r="M102" s="2">
         <v>0</v>
       </c>
       <c r="N102">
@@ -17634,24 +17634,24 @@
       <c r="Z102">
         <v>0.592337</v>
       </c>
-      <c r="AA102" s="9">
+      <c r="AA102" s="3">
         <f t="shared" si="5"/>
         <v>2.4553206887993375</v>
       </c>
-      <c r="AB102" s="9">
+      <c r="AB102" s="3">
         <f t="shared" si="6"/>
         <v>3.0644048979096929</v>
       </c>
-      <c r="AC102" s="9">
+      <c r="AC102" s="3">
         <f t="shared" si="7"/>
         <v>2.3854832637501961</v>
       </c>
-      <c r="AD102" s="9">
+      <c r="AD102" s="3">
         <f t="shared" si="8"/>
         <v>3.0890523468903681</v>
       </c>
     </row>
-    <row r="103" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>10</v>
       </c>
@@ -17688,7 +17688,7 @@
       <c r="L103">
         <v>-360</v>
       </c>
-      <c r="M103" s="5">
+      <c r="M103" s="2">
         <v>0</v>
       </c>
       <c r="N103">
@@ -17730,24 +17730,24 @@
       <c r="Z103">
         <v>0.592337</v>
       </c>
-      <c r="AA103" s="9">
+      <c r="AA103" s="3">
         <f t="shared" si="5"/>
         <v>2.4403912719749461</v>
       </c>
-      <c r="AB103" s="9">
+      <c r="AB103" s="3">
         <f t="shared" si="6"/>
         <v>3.0458568026418247</v>
       </c>
-      <c r="AC103" s="9">
+      <c r="AC103" s="3">
         <f t="shared" si="7"/>
         <v>2.3706943851219826</v>
       </c>
-      <c r="AD103" s="9">
+      <c r="AD103" s="3">
         <f t="shared" si="8"/>
         <v>3.0700091333143127</v>
       </c>
     </row>
-    <row r="104" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>10.1</v>
       </c>
@@ -17784,7 +17784,7 @@
       <c r="L104">
         <v>-360</v>
       </c>
-      <c r="M104" s="5">
+      <c r="M104" s="2">
         <v>0</v>
       </c>
       <c r="N104">
@@ -17826,24 +17826,24 @@
       <c r="Z104">
         <v>0.592337</v>
       </c>
-      <c r="AA104" s="9">
+      <c r="AA104" s="3">
         <f t="shared" si="5"/>
         <v>2.4256986796560169</v>
       </c>
-      <c r="AB104" s="9">
+      <c r="AB104" s="3">
         <f t="shared" si="6"/>
         <v>3.0276023697607317</v>
       </c>
-      <c r="AC104" s="9">
+      <c r="AC104" s="3">
         <f t="shared" si="7"/>
         <v>2.3561249761537773</v>
       </c>
-      <c r="AD104" s="9">
+      <c r="AD104" s="3">
         <f t="shared" si="8"/>
         <v>3.0512698008059602</v>
       </c>
     </row>
-    <row r="105" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>10.199999999999999</v>
       </c>
@@ -17880,7 +17880,7 @@
       <c r="L105">
         <v>-360</v>
       </c>
-      <c r="M105" s="5">
+      <c r="M105" s="2">
         <v>0</v>
       </c>
       <c r="N105">
@@ -17922,24 +17922,24 @@
       <c r="Z105">
         <v>0.592337</v>
       </c>
-      <c r="AA105" s="9">
+      <c r="AA105" s="3">
         <f t="shared" si="5"/>
         <v>2.4112334388623329</v>
       </c>
-      <c r="AB105" s="9">
+      <c r="AB105" s="3">
         <f t="shared" si="6"/>
         <v>3.0096131803257569</v>
       </c>
-      <c r="AC105" s="9">
+      <c r="AC105" s="3">
         <f t="shared" si="7"/>
         <v>2.3417919191271186</v>
       </c>
-      <c r="AD105" s="9">
+      <c r="AD105" s="3">
         <f t="shared" si="8"/>
         <v>3.0328005848022328</v>
       </c>
     </row>
-    <row r="106" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>10.3</v>
       </c>
@@ -17976,7 +17976,7 @@
       <c r="L106">
         <v>-360</v>
       </c>
-      <c r="M106" s="5">
+      <c r="M106" s="2">
         <v>0</v>
       </c>
       <c r="N106">
@@ -18018,24 +18018,24 @@
       <c r="Z106">
         <v>0.592337</v>
       </c>
-      <c r="AA106" s="9">
+      <c r="AA106" s="3">
         <f t="shared" si="5"/>
         <v>2.3969766036334565</v>
       </c>
-      <c r="AB106" s="9">
+      <c r="AB106" s="3">
         <f t="shared" si="6"/>
         <v>2.9918987073171195</v>
       </c>
-      <c r="AC106" s="9">
+      <c r="AC106" s="3">
         <f t="shared" si="7"/>
         <v>2.3276783317604672</v>
       </c>
-      <c r="AD106" s="9">
+      <c r="AD106" s="3">
         <f t="shared" si="8"/>
         <v>3.0146183675846689</v>
       </c>
     </row>
-    <row r="107" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>10.4</v>
       </c>
@@ -18072,7 +18072,7 @@
       <c r="L107">
         <v>-360</v>
       </c>
-      <c r="M107" s="5">
+      <c r="M107" s="2">
         <v>0</v>
       </c>
       <c r="N107">
@@ -18114,24 +18114,24 @@
       <c r="Z107">
         <v>0.592337</v>
       </c>
-      <c r="AA107" s="9">
+      <c r="AA107" s="3">
         <f t="shared" si="5"/>
         <v>2.382937646949606</v>
       </c>
-      <c r="AB107" s="9">
+      <c r="AB107" s="3">
         <f t="shared" si="6"/>
         <v>2.9744400047743818</v>
       </c>
-      <c r="AC107" s="9">
+      <c r="AC107" s="3">
         <f t="shared" si="7"/>
         <v>2.3137842140538241</v>
       </c>
-      <c r="AD107" s="9">
+      <c r="AD107" s="3">
         <f t="shared" si="8"/>
         <v>2.9967231491532691</v>
       </c>
     </row>
-    <row r="108" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>10.5</v>
       </c>
@@ -18168,7 +18168,7 @@
       <c r="L108">
         <v>-360</v>
       </c>
-      <c r="M108" s="5">
+      <c r="M108" s="2">
         <v>0</v>
       </c>
       <c r="N108">
@@ -18210,24 +18210,24 @@
       <c r="Z108">
         <v>0.592337</v>
       </c>
-      <c r="AA108" s="9">
+      <c r="AA108" s="3">
         <f t="shared" si="5"/>
         <v>2.3691070958305627</v>
       </c>
-      <c r="AB108" s="9">
+      <c r="AB108" s="3">
         <f t="shared" si="6"/>
         <v>2.957246545677763</v>
       </c>
-      <c r="AC108" s="9">
+      <c r="AC108" s="3">
         <f t="shared" si="7"/>
         <v>2.3000926837256492</v>
       </c>
-      <c r="AD108" s="9">
+      <c r="AD108" s="3">
         <f t="shared" si="8"/>
         <v>2.9790811649449553</v>
       </c>
     </row>
-    <row r="109" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>10.6</v>
       </c>
@@ -18264,7 +18264,7 @@
       <c r="L109">
         <v>-360</v>
       </c>
-      <c r="M109" s="5">
+      <c r="M109" s="2">
         <v>0</v>
       </c>
       <c r="N109">
@@ -18306,24 +18306,24 @@
       <c r="Z109">
         <v>0.592337</v>
       </c>
-      <c r="AA109" s="9">
+      <c r="AA109" s="3">
         <f t="shared" si="5"/>
         <v>2.3554849502763271</v>
       </c>
-      <c r="AB109" s="9">
+      <c r="AB109" s="3">
         <f t="shared" si="6"/>
         <v>2.9402993840668263</v>
       </c>
-      <c r="AC109" s="9">
+      <c r="AC109" s="3">
         <f t="shared" si="7"/>
         <v>2.2866037407759436</v>
       </c>
-      <c r="AD109" s="9">
+      <c r="AD109" s="3">
         <f t="shared" si="8"/>
         <v>2.9617092972412662</v>
       </c>
     </row>
-    <row r="110" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>10.7</v>
       </c>
@@ -18360,7 +18360,7 @@
       <c r="L110">
         <v>-360</v>
       </c>
-      <c r="M110" s="5">
+      <c r="M110" s="2">
         <v>0</v>
       </c>
       <c r="N110">
@@ -18402,24 +18402,24 @@
       <c r="Z110">
         <v>0.592337</v>
       </c>
-      <c r="AA110" s="9">
+      <c r="AA110" s="3">
         <f t="shared" si="5"/>
         <v>2.3420522643264619</v>
       </c>
-      <c r="AB110" s="9">
+      <c r="AB110" s="3">
         <f t="shared" si="6"/>
         <v>2.9236079929217897</v>
       </c>
-      <c r="AC110" s="9">
+      <c r="AC110" s="3">
         <f t="shared" si="7"/>
         <v>2.273300502923167</v>
       </c>
-      <c r="AD110" s="9">
+      <c r="AD110" s="3">
         <f t="shared" si="8"/>
         <v>2.9445737814791242</v>
       </c>
     </row>
-    <row r="111" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>10.8</v>
       </c>
@@ -18456,7 +18456,7 @@
       <c r="L111">
         <v>-360</v>
       </c>
-      <c r="M111" s="5">
+      <c r="M111" s="2">
         <v>0</v>
       </c>
       <c r="N111">
@@ -18498,24 +18498,24 @@
       <c r="Z111">
         <v>0.592337</v>
       </c>
-      <c r="AA111" s="9">
+      <c r="AA111" s="3">
         <f t="shared" si="5"/>
         <v>2.3288090379809669</v>
       </c>
-      <c r="AB111" s="9">
+      <c r="AB111" s="3">
         <f t="shared" si="6"/>
         <v>2.9071439533019965</v>
       </c>
-      <c r="AC111" s="9">
+      <c r="AC111" s="3">
         <f t="shared" si="7"/>
         <v>2.2602167347303985</v>
       </c>
-      <c r="AD111" s="9">
+      <c r="AD111" s="3">
         <f t="shared" si="8"/>
         <v>2.9277083822216063</v>
       </c>
     </row>
-    <row r="112" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>10.9</v>
       </c>
@@ -18552,7 +18552,7 @@
       <c r="L112">
         <v>-360</v>
       </c>
-      <c r="M112" s="5">
+      <c r="M112" s="2">
         <v>0</v>
       </c>
       <c r="N112">
@@ -18594,19 +18594,19 @@
       <c r="Z112">
         <v>0.592337</v>
       </c>
-      <c r="AA112" s="9">
+      <c r="AA112" s="3">
         <f t="shared" si="5"/>
         <v>2.3157647442200613</v>
       </c>
-      <c r="AB112" s="9">
+      <c r="AB112" s="3">
         <f t="shared" si="6"/>
         <v>2.8909167381876673</v>
       </c>
-      <c r="AC112" s="9">
+      <c r="AC112" s="3">
         <f t="shared" si="7"/>
         <v>2.2473017893530205</v>
       </c>
-      <c r="AD112" s="9">
+      <c r="AD112" s="3">
         <f t="shared" si="8"/>
         <v>2.9110793349056365</v>
       </c>
@@ -18629,16 +18629,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F2C82D-3B24-49DF-83C2-BB03B6B434DB}">
   <dimension ref="A1:F111"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:E111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -18655,7 +18655,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
@@ -18668,11 +18668,11 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>0.1</v>
       </c>
@@ -18685,11 +18685,11 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>0.2</v>
       </c>
@@ -18702,11 +18702,11 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>0.3</v>
       </c>
@@ -18719,11 +18719,11 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>0.4</v>
       </c>
@@ -18736,11 +18736,11 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>0.5</v>
       </c>
@@ -18753,11 +18753,11 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>0.6</v>
       </c>
@@ -18770,11 +18770,11 @@
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>0.7</v>
       </c>
@@ -18787,11 +18787,11 @@
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>0.8</v>
       </c>
@@ -18804,11 +18804,11 @@
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>0.9</v>
       </c>
@@ -18821,11 +18821,11 @@
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1</v>
       </c>
@@ -18838,11 +18838,11 @@
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="E12" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1.1000000000000001</v>
       </c>
@@ -18855,12 +18855,12 @@
       <c r="D13">
         <v>-32.400050999999998</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="2">
         <v>-360</v>
       </c>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1.2</v>
       </c>
@@ -18873,12 +18873,12 @@
       <c r="D14">
         <v>-68.400059999999996</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="2">
         <v>-360</v>
       </c>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>1.3</v>
       </c>
@@ -18891,12 +18891,12 @@
       <c r="D15">
         <v>-104.400069</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="2">
         <v>-360</v>
       </c>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1.4</v>
       </c>
@@ -18909,12 +18909,12 @@
       <c r="D16">
         <v>-140.40007700000001</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="2">
         <v>-360</v>
       </c>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>1.5</v>
       </c>
@@ -18927,12 +18927,12 @@
       <c r="D17">
         <v>-176.40008599999999</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="2">
         <v>-360</v>
       </c>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>1.6</v>
       </c>
@@ -18945,12 +18945,12 @@
       <c r="D18">
         <v>-212.400094</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="2">
         <v>-360</v>
       </c>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>1.7</v>
       </c>
@@ -18963,12 +18963,12 @@
       <c r="D19">
         <v>-248.400103</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="2">
         <v>-360</v>
       </c>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>1.8</v>
       </c>
@@ -18981,12 +18981,12 @@
       <c r="D20">
         <v>-284.40011199999998</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="2">
         <v>-360</v>
       </c>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>1.9</v>
       </c>
@@ -18999,12 +18999,12 @@
       <c r="D21">
         <v>-320.40012000000002</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="2">
         <v>-360</v>
       </c>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>2</v>
       </c>
@@ -19017,12 +19017,12 @@
       <c r="D22">
         <v>-356.40008599999999</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="2">
         <v>-360</v>
       </c>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>2.1</v>
       </c>
@@ -19035,12 +19035,12 @@
       <c r="D23">
         <v>-360</v>
       </c>
-      <c r="E23" s="5">
-        <v>0</v>
-      </c>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>2.2000000000000002</v>
       </c>
@@ -19053,12 +19053,12 @@
       <c r="D24">
         <v>-360</v>
       </c>
-      <c r="E24" s="5">
-        <v>0</v>
-      </c>
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>2.2999999999999998</v>
       </c>
@@ -19071,12 +19071,12 @@
       <c r="D25">
         <v>-360</v>
       </c>
-      <c r="E25" s="5">
-        <v>0</v>
-      </c>
-      <c r="F25" s="5"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>2.4</v>
       </c>
@@ -19089,12 +19089,12 @@
       <c r="D26">
         <v>-360</v>
       </c>
-      <c r="E26" s="5">
-        <v>0</v>
-      </c>
-      <c r="F26" s="5"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>2.5</v>
       </c>
@@ -19107,12 +19107,12 @@
       <c r="D27">
         <v>-360</v>
       </c>
-      <c r="E27" s="5">
-        <v>0</v>
-      </c>
-      <c r="F27" s="5"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>2.6</v>
       </c>
@@ -19125,12 +19125,12 @@
       <c r="D28">
         <v>-360</v>
       </c>
-      <c r="E28" s="5">
-        <v>0</v>
-      </c>
-      <c r="F28" s="5"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>2.7</v>
       </c>
@@ -19143,12 +19143,12 @@
       <c r="D29">
         <v>-360</v>
       </c>
-      <c r="E29" s="5">
-        <v>0</v>
-      </c>
-      <c r="F29" s="5"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>2.8</v>
       </c>
@@ -19161,12 +19161,12 @@
       <c r="D30">
         <v>-360</v>
       </c>
-      <c r="E30" s="5">
-        <v>0</v>
-      </c>
-      <c r="F30" s="5"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>2.9</v>
       </c>
@@ -19179,12 +19179,12 @@
       <c r="D31">
         <v>-360</v>
       </c>
-      <c r="E31" s="5">
-        <v>0</v>
-      </c>
-      <c r="F31" s="5"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>3</v>
       </c>
@@ -19197,12 +19197,12 @@
       <c r="D32">
         <v>-360</v>
       </c>
-      <c r="E32" s="5">
-        <v>0</v>
-      </c>
-      <c r="F32" s="5"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>3.1</v>
       </c>
@@ -19215,12 +19215,12 @@
       <c r="D33">
         <v>-360</v>
       </c>
-      <c r="E33" s="5">
-        <v>0</v>
-      </c>
-      <c r="F33" s="5"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>3.2</v>
       </c>
@@ -19233,12 +19233,12 @@
       <c r="D34">
         <v>-360</v>
       </c>
-      <c r="E34" s="5">
-        <v>0</v>
-      </c>
-      <c r="F34" s="5"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>3.3</v>
       </c>
@@ -19251,12 +19251,12 @@
       <c r="D35">
         <v>-360</v>
       </c>
-      <c r="E35" s="5">
-        <v>0</v>
-      </c>
-      <c r="F35" s="5"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>3.4</v>
       </c>
@@ -19269,12 +19269,12 @@
       <c r="D36">
         <v>-360</v>
       </c>
-      <c r="E36" s="5">
-        <v>0</v>
-      </c>
-      <c r="F36" s="5"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>3.5</v>
       </c>
@@ -19287,12 +19287,12 @@
       <c r="D37">
         <v>-360</v>
       </c>
-      <c r="E37" s="5">
-        <v>0</v>
-      </c>
-      <c r="F37" s="5"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E37" s="2">
+        <v>0</v>
+      </c>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>3.6</v>
       </c>
@@ -19305,12 +19305,12 @@
       <c r="D38">
         <v>-360</v>
       </c>
-      <c r="E38" s="5">
-        <v>0</v>
-      </c>
-      <c r="F38" s="5"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E38" s="2">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>3.7</v>
       </c>
@@ -19323,12 +19323,12 @@
       <c r="D39">
         <v>-360</v>
       </c>
-      <c r="E39" s="5">
-        <v>0</v>
-      </c>
-      <c r="F39" s="5"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E39" s="2">
+        <v>0</v>
+      </c>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>3.8</v>
       </c>
@@ -19341,12 +19341,12 @@
       <c r="D40">
         <v>-360</v>
       </c>
-      <c r="E40" s="5">
-        <v>0</v>
-      </c>
-      <c r="F40" s="5"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E40" s="2">
+        <v>0</v>
+      </c>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>3.9</v>
       </c>
@@ -19359,12 +19359,12 @@
       <c r="D41">
         <v>-360</v>
       </c>
-      <c r="E41" s="5">
-        <v>0</v>
-      </c>
-      <c r="F41" s="5"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E41" s="2">
+        <v>0</v>
+      </c>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>4</v>
       </c>
@@ -19377,12 +19377,12 @@
       <c r="D42">
         <v>-360</v>
       </c>
-      <c r="E42" s="5">
-        <v>0</v>
-      </c>
-      <c r="F42" s="5"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E42" s="2">
+        <v>0</v>
+      </c>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>4.0999999999999996</v>
       </c>
@@ -19395,12 +19395,12 @@
       <c r="D43">
         <v>-360</v>
       </c>
-      <c r="E43" s="5">
-        <v>0</v>
-      </c>
-      <c r="F43" s="5"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E43" s="2">
+        <v>0</v>
+      </c>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>4.2</v>
       </c>
@@ -19413,12 +19413,12 @@
       <c r="D44">
         <v>-360</v>
       </c>
-      <c r="E44" s="5">
-        <v>0</v>
-      </c>
-      <c r="F44" s="5"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E44" s="2">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>4.3</v>
       </c>
@@ -19431,12 +19431,12 @@
       <c r="D45">
         <v>-360</v>
       </c>
-      <c r="E45" s="5">
-        <v>0</v>
-      </c>
-      <c r="F45" s="5"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E45" s="2">
+        <v>0</v>
+      </c>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>4.4000000000000004</v>
       </c>
@@ -19449,12 +19449,12 @@
       <c r="D46">
         <v>-360</v>
       </c>
-      <c r="E46" s="5">
-        <v>0</v>
-      </c>
-      <c r="F46" s="5"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E46" s="2">
+        <v>0</v>
+      </c>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>4.5</v>
       </c>
@@ -19467,12 +19467,12 @@
       <c r="D47">
         <v>-360</v>
       </c>
-      <c r="E47" s="5">
-        <v>0</v>
-      </c>
-      <c r="F47" s="5"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E47" s="2">
+        <v>0</v>
+      </c>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>4.5999999999999996</v>
       </c>
@@ -19485,12 +19485,12 @@
       <c r="D48">
         <v>-360</v>
       </c>
-      <c r="E48" s="5">
-        <v>0</v>
-      </c>
-      <c r="F48" s="5"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E48" s="2">
+        <v>0</v>
+      </c>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>4.7</v>
       </c>
@@ -19503,12 +19503,12 @@
       <c r="D49">
         <v>-360</v>
       </c>
-      <c r="E49" s="5">
-        <v>0</v>
-      </c>
-      <c r="F49" s="5"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E49" s="2">
+        <v>0</v>
+      </c>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>4.8</v>
       </c>
@@ -19521,12 +19521,12 @@
       <c r="D50">
         <v>-360</v>
       </c>
-      <c r="E50" s="5">
-        <v>0</v>
-      </c>
-      <c r="F50" s="5"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E50" s="2">
+        <v>0</v>
+      </c>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>4.9000000000000004</v>
       </c>
@@ -19539,12 +19539,12 @@
       <c r="D51">
         <v>-360</v>
       </c>
-      <c r="E51" s="5">
-        <v>0</v>
-      </c>
-      <c r="F51" s="5"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E51" s="2">
+        <v>0</v>
+      </c>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>5</v>
       </c>
@@ -19557,12 +19557,12 @@
       <c r="D52">
         <v>-360</v>
       </c>
-      <c r="E52" s="5">
-        <v>0</v>
-      </c>
-      <c r="F52" s="5"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E52" s="2">
+        <v>0</v>
+      </c>
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>5.0999999999999996</v>
       </c>
@@ -19575,12 +19575,12 @@
       <c r="D53">
         <v>-360</v>
       </c>
-      <c r="E53" s="5">
-        <v>0</v>
-      </c>
-      <c r="F53" s="5"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E53" s="2">
+        <v>0</v>
+      </c>
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>5.2</v>
       </c>
@@ -19593,12 +19593,12 @@
       <c r="D54">
         <v>-360</v>
       </c>
-      <c r="E54" s="5">
-        <v>0</v>
-      </c>
-      <c r="F54" s="5"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E54" s="2">
+        <v>0</v>
+      </c>
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>5.3</v>
       </c>
@@ -19611,12 +19611,12 @@
       <c r="D55">
         <v>-360</v>
       </c>
-      <c r="E55" s="5">
-        <v>0</v>
-      </c>
-      <c r="F55" s="5"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E55" s="2">
+        <v>0</v>
+      </c>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>5.4</v>
       </c>
@@ -19629,12 +19629,12 @@
       <c r="D56">
         <v>-360</v>
       </c>
-      <c r="E56" s="5">
-        <v>0</v>
-      </c>
-      <c r="F56" s="5"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E56" s="2">
+        <v>0</v>
+      </c>
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>5.5</v>
       </c>
@@ -19647,12 +19647,12 @@
       <c r="D57">
         <v>-360</v>
       </c>
-      <c r="E57" s="5">
-        <v>0</v>
-      </c>
-      <c r="F57" s="5"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E57" s="2">
+        <v>0</v>
+      </c>
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>5.6</v>
       </c>
@@ -19665,12 +19665,12 @@
       <c r="D58">
         <v>-360</v>
       </c>
-      <c r="E58" s="5">
-        <v>0</v>
-      </c>
-      <c r="F58" s="5"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E58" s="2">
+        <v>0</v>
+      </c>
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>5.7</v>
       </c>
@@ -19683,12 +19683,12 @@
       <c r="D59">
         <v>-360</v>
       </c>
-      <c r="E59" s="5">
-        <v>0</v>
-      </c>
-      <c r="F59" s="5"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E59" s="2">
+        <v>0</v>
+      </c>
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>5.8</v>
       </c>
@@ -19701,12 +19701,12 @@
       <c r="D60">
         <v>-360</v>
       </c>
-      <c r="E60" s="5">
-        <v>0</v>
-      </c>
-      <c r="F60" s="5"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E60" s="2">
+        <v>0</v>
+      </c>
+      <c r="F60" s="2"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>5.9</v>
       </c>
@@ -19719,12 +19719,12 @@
       <c r="D61">
         <v>-360</v>
       </c>
-      <c r="E61" s="5">
-        <v>0</v>
-      </c>
-      <c r="F61" s="5"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E61" s="2">
+        <v>0</v>
+      </c>
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>6</v>
       </c>
@@ -19737,12 +19737,12 @@
       <c r="D62">
         <v>-360</v>
       </c>
-      <c r="E62" s="5">
-        <v>0</v>
-      </c>
-      <c r="F62" s="5"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E62" s="2">
+        <v>0</v>
+      </c>
+      <c r="F62" s="2"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>6.1</v>
       </c>
@@ -19755,12 +19755,12 @@
       <c r="D63">
         <v>-360</v>
       </c>
-      <c r="E63" s="5">
-        <v>0</v>
-      </c>
-      <c r="F63" s="5"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E63" s="2">
+        <v>0</v>
+      </c>
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>6.2</v>
       </c>
@@ -19773,12 +19773,12 @@
       <c r="D64">
         <v>-360</v>
       </c>
-      <c r="E64" s="5">
-        <v>0</v>
-      </c>
-      <c r="F64" s="5"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E64" s="2">
+        <v>0</v>
+      </c>
+      <c r="F64" s="2"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>6.3</v>
       </c>
@@ -19791,12 +19791,12 @@
       <c r="D65">
         <v>-360</v>
       </c>
-      <c r="E65" s="5">
-        <v>0</v>
-      </c>
-      <c r="F65" s="5"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E65" s="2">
+        <v>0</v>
+      </c>
+      <c r="F65" s="2"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>6.4</v>
       </c>
@@ -19809,12 +19809,12 @@
       <c r="D66">
         <v>-360</v>
       </c>
-      <c r="E66" s="5">
-        <v>0</v>
-      </c>
-      <c r="F66" s="5"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E66" s="2">
+        <v>0</v>
+      </c>
+      <c r="F66" s="2"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>6.5</v>
       </c>
@@ -19827,12 +19827,12 @@
       <c r="D67">
         <v>-360</v>
       </c>
-      <c r="E67" s="5">
-        <v>0</v>
-      </c>
-      <c r="F67" s="5"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E67" s="2">
+        <v>0</v>
+      </c>
+      <c r="F67" s="2"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>6.6</v>
       </c>
@@ -19845,12 +19845,12 @@
       <c r="D68">
         <v>-360</v>
       </c>
-      <c r="E68" s="5">
-        <v>0</v>
-      </c>
-      <c r="F68" s="5"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E68" s="2">
+        <v>0</v>
+      </c>
+      <c r="F68" s="2"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>6.7</v>
       </c>
@@ -19863,12 +19863,12 @@
       <c r="D69">
         <v>-360</v>
       </c>
-      <c r="E69" s="5">
-        <v>0</v>
-      </c>
-      <c r="F69" s="5"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E69" s="2">
+        <v>0</v>
+      </c>
+      <c r="F69" s="2"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>6.8</v>
       </c>
@@ -19881,12 +19881,12 @@
       <c r="D70">
         <v>-360</v>
       </c>
-      <c r="E70" s="5">
-        <v>0</v>
-      </c>
-      <c r="F70" s="5"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E70" s="2">
+        <v>0</v>
+      </c>
+      <c r="F70" s="2"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>6.9</v>
       </c>
@@ -19899,12 +19899,12 @@
       <c r="D71">
         <v>-360</v>
       </c>
-      <c r="E71" s="5">
-        <v>0</v>
-      </c>
-      <c r="F71" s="5"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E71" s="2">
+        <v>0</v>
+      </c>
+      <c r="F71" s="2"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>7</v>
       </c>
@@ -19917,12 +19917,12 @@
       <c r="D72">
         <v>-360</v>
       </c>
-      <c r="E72" s="5">
-        <v>0</v>
-      </c>
-      <c r="F72" s="5"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E72" s="2">
+        <v>0</v>
+      </c>
+      <c r="F72" s="2"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>7.1</v>
       </c>
@@ -19935,12 +19935,12 @@
       <c r="D73">
         <v>-360</v>
       </c>
-      <c r="E73" s="5">
-        <v>0</v>
-      </c>
-      <c r="F73" s="5"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E73" s="2">
+        <v>0</v>
+      </c>
+      <c r="F73" s="2"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>7.2</v>
       </c>
@@ -19953,12 +19953,12 @@
       <c r="D74">
         <v>-360</v>
       </c>
-      <c r="E74" s="5">
-        <v>0</v>
-      </c>
-      <c r="F74" s="5"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E74" s="2">
+        <v>0</v>
+      </c>
+      <c r="F74" s="2"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>7.3</v>
       </c>
@@ -19971,12 +19971,12 @@
       <c r="D75">
         <v>-360</v>
       </c>
-      <c r="E75" s="5">
-        <v>0</v>
-      </c>
-      <c r="F75" s="5"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E75" s="2">
+        <v>0</v>
+      </c>
+      <c r="F75" s="2"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>7.4</v>
       </c>
@@ -19989,12 +19989,12 @@
       <c r="D76">
         <v>-360</v>
       </c>
-      <c r="E76" s="5">
-        <v>0</v>
-      </c>
-      <c r="F76" s="5"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E76" s="2">
+        <v>0</v>
+      </c>
+      <c r="F76" s="2"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>7.5</v>
       </c>
@@ -20007,12 +20007,12 @@
       <c r="D77">
         <v>-360</v>
       </c>
-      <c r="E77" s="5">
-        <v>0</v>
-      </c>
-      <c r="F77" s="5"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E77" s="2">
+        <v>0</v>
+      </c>
+      <c r="F77" s="2"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>7.6</v>
       </c>
@@ -20025,12 +20025,12 @@
       <c r="D78">
         <v>-360</v>
       </c>
-      <c r="E78" s="5">
-        <v>0</v>
-      </c>
-      <c r="F78" s="5"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E78" s="2">
+        <v>0</v>
+      </c>
+      <c r="F78" s="2"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>7.7</v>
       </c>
@@ -20043,12 +20043,12 @@
       <c r="D79">
         <v>-360</v>
       </c>
-      <c r="E79" s="5">
-        <v>0</v>
-      </c>
-      <c r="F79" s="5"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E79" s="2">
+        <v>0</v>
+      </c>
+      <c r="F79" s="2"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>7.8</v>
       </c>
@@ -20061,12 +20061,12 @@
       <c r="D80">
         <v>-360</v>
       </c>
-      <c r="E80" s="5">
-        <v>0</v>
-      </c>
-      <c r="F80" s="5"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E80" s="2">
+        <v>0</v>
+      </c>
+      <c r="F80" s="2"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>7.9</v>
       </c>
@@ -20079,12 +20079,12 @@
       <c r="D81">
         <v>-360</v>
       </c>
-      <c r="E81" s="5">
-        <v>0</v>
-      </c>
-      <c r="F81" s="5"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E81" s="2">
+        <v>0</v>
+      </c>
+      <c r="F81" s="2"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>8</v>
       </c>
@@ -20097,12 +20097,12 @@
       <c r="D82">
         <v>-360</v>
       </c>
-      <c r="E82" s="5">
-        <v>0</v>
-      </c>
-      <c r="F82" s="5"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E82" s="2">
+        <v>0</v>
+      </c>
+      <c r="F82" s="2"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>8.1</v>
       </c>
@@ -20115,12 +20115,12 @@
       <c r="D83">
         <v>-360</v>
       </c>
-      <c r="E83" s="5">
-        <v>0</v>
-      </c>
-      <c r="F83" s="5"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E83" s="2">
+        <v>0</v>
+      </c>
+      <c r="F83" s="2"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>8.1999999999999993</v>
       </c>
@@ -20133,12 +20133,12 @@
       <c r="D84">
         <v>-360</v>
       </c>
-      <c r="E84" s="5">
-        <v>0</v>
-      </c>
-      <c r="F84" s="5"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E84" s="2">
+        <v>0</v>
+      </c>
+      <c r="F84" s="2"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>8.3000000000000007</v>
       </c>
@@ -20151,12 +20151,12 @@
       <c r="D85">
         <v>-360</v>
       </c>
-      <c r="E85" s="5">
-        <v>0</v>
-      </c>
-      <c r="F85" s="5"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E85" s="2">
+        <v>0</v>
+      </c>
+      <c r="F85" s="2"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>8.4</v>
       </c>
@@ -20169,12 +20169,12 @@
       <c r="D86">
         <v>-360</v>
       </c>
-      <c r="E86" s="5">
-        <v>0</v>
-      </c>
-      <c r="F86" s="5"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E86" s="2">
+        <v>0</v>
+      </c>
+      <c r="F86" s="2"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>8.5</v>
       </c>
@@ -20187,12 +20187,12 @@
       <c r="D87">
         <v>-360</v>
       </c>
-      <c r="E87" s="5">
-        <v>0</v>
-      </c>
-      <c r="F87" s="5"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E87" s="2">
+        <v>0</v>
+      </c>
+      <c r="F87" s="2"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>8.6</v>
       </c>
@@ -20205,12 +20205,12 @@
       <c r="D88">
         <v>-360</v>
       </c>
-      <c r="E88" s="5">
-        <v>0</v>
-      </c>
-      <c r="F88" s="5"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E88" s="2">
+        <v>0</v>
+      </c>
+      <c r="F88" s="2"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>8.6999999999999993</v>
       </c>
@@ -20223,12 +20223,12 @@
       <c r="D89">
         <v>-360</v>
       </c>
-      <c r="E89" s="5">
-        <v>0</v>
-      </c>
-      <c r="F89" s="5"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E89" s="2">
+        <v>0</v>
+      </c>
+      <c r="F89" s="2"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>8.8000000000000007</v>
       </c>
@@ -20241,12 +20241,12 @@
       <c r="D90">
         <v>-360</v>
       </c>
-      <c r="E90" s="5">
-        <v>0</v>
-      </c>
-      <c r="F90" s="5"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E90" s="2">
+        <v>0</v>
+      </c>
+      <c r="F90" s="2"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>8.9</v>
       </c>
@@ -20259,12 +20259,12 @@
       <c r="D91">
         <v>-360</v>
       </c>
-      <c r="E91" s="5">
-        <v>0</v>
-      </c>
-      <c r="F91" s="5"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E91" s="2">
+        <v>0</v>
+      </c>
+      <c r="F91" s="2"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>9</v>
       </c>
@@ -20277,12 +20277,12 @@
       <c r="D92">
         <v>-360</v>
       </c>
-      <c r="E92" s="5">
-        <v>0</v>
-      </c>
-      <c r="F92" s="5"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E92" s="2">
+        <v>0</v>
+      </c>
+      <c r="F92" s="2"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>9.1</v>
       </c>
@@ -20295,12 +20295,12 @@
       <c r="D93">
         <v>-360</v>
       </c>
-      <c r="E93" s="5">
-        <v>0</v>
-      </c>
-      <c r="F93" s="5"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E93" s="2">
+        <v>0</v>
+      </c>
+      <c r="F93" s="2"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>9.1999999999999993</v>
       </c>
@@ -20313,12 +20313,12 @@
       <c r="D94">
         <v>-360</v>
       </c>
-      <c r="E94" s="5">
-        <v>0</v>
-      </c>
-      <c r="F94" s="5"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E94" s="2">
+        <v>0</v>
+      </c>
+      <c r="F94" s="2"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>9.3000000000000007</v>
       </c>
@@ -20331,12 +20331,12 @@
       <c r="D95">
         <v>-360</v>
       </c>
-      <c r="E95" s="5">
-        <v>0</v>
-      </c>
-      <c r="F95" s="5"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E95" s="2">
+        <v>0</v>
+      </c>
+      <c r="F95" s="2"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>9.4</v>
       </c>
@@ -20349,12 +20349,12 @@
       <c r="D96">
         <v>-360</v>
       </c>
-      <c r="E96" s="5">
-        <v>0</v>
-      </c>
-      <c r="F96" s="5"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E96" s="2">
+        <v>0</v>
+      </c>
+      <c r="F96" s="2"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>9.5</v>
       </c>
@@ -20367,12 +20367,12 @@
       <c r="D97">
         <v>-360</v>
       </c>
-      <c r="E97" s="5">
-        <v>0</v>
-      </c>
-      <c r="F97" s="5"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E97" s="2">
+        <v>0</v>
+      </c>
+      <c r="F97" s="2"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>9.6</v>
       </c>
@@ -20385,12 +20385,12 @@
       <c r="D98">
         <v>-360</v>
       </c>
-      <c r="E98" s="5">
-        <v>0</v>
-      </c>
-      <c r="F98" s="5"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E98" s="2">
+        <v>0</v>
+      </c>
+      <c r="F98" s="2"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>9.6999999999999993</v>
       </c>
@@ -20403,12 +20403,12 @@
       <c r="D99">
         <v>-360</v>
       </c>
-      <c r="E99" s="5">
-        <v>0</v>
-      </c>
-      <c r="F99" s="5"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E99" s="2">
+        <v>0</v>
+      </c>
+      <c r="F99" s="2"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>9.8000000000000007</v>
       </c>
@@ -20421,12 +20421,12 @@
       <c r="D100">
         <v>-360</v>
       </c>
-      <c r="E100" s="5">
-        <v>0</v>
-      </c>
-      <c r="F100" s="5"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E100" s="2">
+        <v>0</v>
+      </c>
+      <c r="F100" s="2"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>9.9</v>
       </c>
@@ -20439,12 +20439,12 @@
       <c r="D101">
         <v>-360</v>
       </c>
-      <c r="E101" s="5">
-        <v>0</v>
-      </c>
-      <c r="F101" s="5"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E101" s="2">
+        <v>0</v>
+      </c>
+      <c r="F101" s="2"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>10</v>
       </c>
@@ -20457,12 +20457,12 @@
       <c r="D102">
         <v>-360</v>
       </c>
-      <c r="E102" s="5">
-        <v>0</v>
-      </c>
-      <c r="F102" s="5"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E102" s="2">
+        <v>0</v>
+      </c>
+      <c r="F102" s="2"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>10.1</v>
       </c>
@@ -20475,12 +20475,12 @@
       <c r="D103">
         <v>-360</v>
       </c>
-      <c r="E103" s="5">
-        <v>0</v>
-      </c>
-      <c r="F103" s="5"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E103" s="2">
+        <v>0</v>
+      </c>
+      <c r="F103" s="2"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>10.199999999999999</v>
       </c>
@@ -20493,12 +20493,12 @@
       <c r="D104">
         <v>-360</v>
       </c>
-      <c r="E104" s="5">
-        <v>0</v>
-      </c>
-      <c r="F104" s="5"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E104" s="2">
+        <v>0</v>
+      </c>
+      <c r="F104" s="2"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>10.3</v>
       </c>
@@ -20511,12 +20511,12 @@
       <c r="D105">
         <v>-360</v>
       </c>
-      <c r="E105" s="5">
-        <v>0</v>
-      </c>
-      <c r="F105" s="5"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E105" s="2">
+        <v>0</v>
+      </c>
+      <c r="F105" s="2"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>10.4</v>
       </c>
@@ -20529,12 +20529,12 @@
       <c r="D106">
         <v>-360</v>
       </c>
-      <c r="E106" s="5">
-        <v>0</v>
-      </c>
-      <c r="F106" s="5"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E106" s="2">
+        <v>0</v>
+      </c>
+      <c r="F106" s="2"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>10.5</v>
       </c>
@@ -20547,12 +20547,12 @@
       <c r="D107">
         <v>-360</v>
       </c>
-      <c r="E107" s="5">
-        <v>0</v>
-      </c>
-      <c r="F107" s="5"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E107" s="2">
+        <v>0</v>
+      </c>
+      <c r="F107" s="2"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>10.6</v>
       </c>
@@ -20565,12 +20565,12 @@
       <c r="D108">
         <v>-360</v>
       </c>
-      <c r="E108" s="5">
-        <v>0</v>
-      </c>
-      <c r="F108" s="5"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E108" s="2">
+        <v>0</v>
+      </c>
+      <c r="F108" s="2"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>10.7</v>
       </c>
@@ -20583,12 +20583,12 @@
       <c r="D109">
         <v>-360</v>
       </c>
-      <c r="E109" s="5">
-        <v>0</v>
-      </c>
-      <c r="F109" s="5"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E109" s="2">
+        <v>0</v>
+      </c>
+      <c r="F109" s="2"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>10.8</v>
       </c>
@@ -20601,12 +20601,12 @@
       <c r="D110">
         <v>-360</v>
       </c>
-      <c r="E110" s="5">
-        <v>0</v>
-      </c>
-      <c r="F110" s="5"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E110" s="2">
+        <v>0</v>
+      </c>
+      <c r="F110" s="2"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>10.9</v>
       </c>
@@ -20619,10 +20619,10 @@
       <c r="D111">
         <v>-360</v>
       </c>
-      <c r="E111" s="5">
-        <v>0</v>
-      </c>
-      <c r="F111" s="5"/>
+      <c r="E111" s="2">
+        <v>0</v>
+      </c>
+      <c r="F111" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
